--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_7_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_7_17.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6155.260199365824</v>
+        <v>-5778.688947459594</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25694028.27108954</v>
+        <v>26340120.55375611</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10945934.67429403</v>
+        <v>11076420.90340768</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4287893.790221296</v>
+        <v>4163722.522087304</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>181.9245108583957</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -710,7 +712,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,10 +721,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>385.6469269706821</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>404.2032624633431</v>
@@ -820,22 +822,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>116.5823467551835</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,16 +873,16 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>119.0790648710797</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,16 +898,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>67.2427605264751</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>300.5437357054171</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1057,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>42.83596166759987</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>129.4782830801035</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
@@ -1069,7 +1071,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>385.3238927773753</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>185.2071699786023</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
@@ -1227,7 +1229,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H9" t="n">
-        <v>41.31829566194966</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,16 +1299,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,19 +1347,19 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>179.2251504404944</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>14.45526395645764</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,13 +1375,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="D11" t="n">
-        <v>374.4268935289279</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E11" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>373.7197913037078</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1464,7 +1466,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H12" t="n">
-        <v>41.31829566194965</v>
+        <v>41.31829566194966</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1528,22 +1530,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>25.15196019135021</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>50.12304842383746</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1582,19 +1584,19 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1616,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>120.3716221032459</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1670,7 +1672,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>203.1869771812474</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1701,7 +1703,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H15" t="n">
-        <v>41.31829566194966</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,7 +1767,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1777,10 +1779,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>227.5807096980583</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>182.2772576904497</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1844,10 +1846,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>403.1572050940909</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1856,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1895,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>14.92919568061821</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -2002,25 +2004,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>12.95827676142962</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,19 +2055,19 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>148.3766424751937</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2078,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>373.7197913037078</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2099,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2144,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>240.4774914434085</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2239,7 +2241,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,7 +2250,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
         <v>163.9353622244306</v>
@@ -2287,25 +2289,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>109.7358283393292</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>58.28357242464475</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>32.19246757545142</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2366,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>373.7197913037078</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2488,13 +2490,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>24.34318456170476</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>148.3766424751937</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -2555,10 +2557,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2567,10 +2569,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H26" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2606,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>37.28016130075125</v>
+        <v>29.26230950814955</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>23.29109504363456</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>7.646576123170202</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2792,19 +2794,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E29" t="n">
-        <v>218.6516117929046</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2843,19 +2845,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>117.0897116475545</v>
       </c>
       <c r="U29" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2950,7 +2952,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2959,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>14.63225008663303</v>
+        <v>159.5828560759984</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3001,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3010,7 +3012,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
@@ -3032,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>46.68188763447793</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3041,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>286.2388530112159</v>
@@ -3089,10 +3091,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>43.25884065436964</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>115.4012337133193</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>159.1000412385906</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -3263,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>7.631968179756101</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
         <v>286.2388530112159</v>
@@ -3314,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>347.3637975681711</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>118.196189913159</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3430,10 +3432,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
@@ -3475,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3490,7 +3492,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>167.2727484050685</v>
       </c>
     </row>
     <row r="38">
@@ -3506,16 +3508,16 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
         <v>286.2388530112159</v>
@@ -3551,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>172.3313610784415</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>203.1869771812474</v>
       </c>
     </row>
     <row r="39">
@@ -3661,13 +3663,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>89.5096634947845</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3718,13 +3720,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>21.39555907027767</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3737,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
@@ -3788,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>116.652225489673</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>19.76988317734234</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
@@ -3910,7 +3912,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>152.9189507365546</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>180.1761863159633</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3974,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>159.4921886272153</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>181.0765084323517</v>
+        <v>49.82206968889089</v>
       </c>
       <c r="G44" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4028,19 +4030,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4053,10 +4055,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C45" t="n">
-        <v>63.10619132616233</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D45" t="n">
         <v>94.13938596491228</v>
@@ -4068,10 +4070,10 @@
         <v>82.55</v>
       </c>
       <c r="G45" t="n">
-        <v>84.53123883647795</v>
+        <v>83.80937540686895</v>
       </c>
       <c r="H45" t="n">
-        <v>41.31829566194965</v>
+        <v>34.34661464441015</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,25 +4106,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>62.82088317610075</v>
+        <v>49.41258657788106</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>125.9672410405524</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>174.5256905149255</v>
       </c>
       <c r="V45" t="n">
-        <v>181.0765084323517</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="46">
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4189,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>165.6287135617056</v>
+        <v>260.2915433175625</v>
       </c>
       <c r="V46" t="n">
-        <v>181.0765084323517</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>181.0765084323517</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4340,13 +4342,13 @@
         <v>453.9965675465116</v>
       </c>
       <c r="N2" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="O2" t="n">
         <v>687.9235674375537</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>1107.976466382457</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1528.02936532736</v>
       </c>
       <c r="Q2" t="n">
         <v>1528.02936532736</v>
@@ -4358,22 +4360,22 @@
         <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1393.464329137293</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U2" t="n">
-        <v>1393.464329137293</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V2" t="n">
-        <v>1030.847379071119</v>
+        <v>1250.914606198081</v>
       </c>
       <c r="W2" t="n">
-        <v>625.9919244821526</v>
+        <v>861.3722557226442</v>
       </c>
       <c r="X2" t="n">
-        <v>625.9919244821526</v>
+        <v>442.2297923019549</v>
       </c>
       <c r="Y2" t="n">
-        <v>217.705800781806</v>
+        <v>33.94366860160834</v>
       </c>
     </row>
     <row r="3">
@@ -4404,10 +4406,10 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="K3" t="n">
         <v>319.8519551513677</v>
@@ -4416,13 +4418,13 @@
         <v>739.9048540962709</v>
       </c>
       <c r="M3" t="n">
+        <v>739.9048540962709</v>
+      </c>
+      <c r="N3" t="n">
+        <v>739.9048540962709</v>
+      </c>
+      <c r="O3" t="n">
         <v>1159.957753041174</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1159.957753041174</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1580.010651986078</v>
       </c>
       <c r="P3" t="n">
         <v>1580.010651986078</v>
@@ -4462,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>535.1709401235207</v>
+        <v>892.3220711155946</v>
       </c>
       <c r="C4" t="n">
-        <v>535.1709401235207</v>
+        <v>892.3220711155946</v>
       </c>
       <c r="D4" t="n">
-        <v>369.2929473250434</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="E4" t="n">
-        <v>199.5349435757807</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F4" t="n">
-        <v>199.5349435757807</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M4" t="n">
-        <v>1181.483761245743</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N4" t="n">
-        <v>1181.483761245743</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4519,19 +4521,19 @@
         <v>1451.303983658873</v>
       </c>
       <c r="U4" t="n">
-        <v>1172.870982911978</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="V4" t="n">
-        <v>1052.589099203817</v>
+        <v>1164.348475529303</v>
       </c>
       <c r="W4" t="n">
-        <v>780.5626947901083</v>
+        <v>892.3220711155946</v>
       </c>
       <c r="X4" t="n">
-        <v>535.1709401235207</v>
+        <v>892.3220711155946</v>
       </c>
       <c r="Y4" t="n">
-        <v>535.1709401235207</v>
+        <v>892.3220711155946</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>102.2824383042412</v>
+        <v>890.8095618279922</v>
       </c>
       <c r="C5" t="n">
-        <v>34.36045797446834</v>
+        <v>890.8095618279922</v>
       </c>
       <c r="D5" t="n">
-        <v>34.36045797446834</v>
+        <v>462.2278875652606</v>
       </c>
       <c r="E5" t="n">
-        <v>34.36045797446834</v>
+        <v>462.2278875652606</v>
       </c>
       <c r="F5" t="n">
         <v>34.36045797446834</v>
@@ -4568,19 +4570,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P5" t="n">
         <v>1107.976466382457</v>
@@ -4592,25 +4594,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V5" t="n">
-        <v>1334.566480014244</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="W5" t="n">
-        <v>929.7110254252771</v>
+        <v>1309.952025248681</v>
       </c>
       <c r="X5" t="n">
-        <v>510.5685620045878</v>
+        <v>890.8095618279922</v>
       </c>
       <c r="Y5" t="n">
-        <v>102.2824383042412</v>
+        <v>890.8095618279922</v>
       </c>
     </row>
     <row r="6">
@@ -4623,7 +4625,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D6" t="n">
         <v>338.5686635760967</v>
@@ -4632,10 +4634,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H6" t="n">
         <v>33.94366860160834</v>
@@ -4650,22 +4652,22 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L6" t="n">
-        <v>857.0776321906106</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M6" t="n">
-        <v>857.0776321906106</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N6" t="n">
-        <v>857.0776321906106</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O6" t="n">
-        <v>857.0776321906106</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P6" t="n">
-        <v>1277.130531135514</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q6" t="n">
-        <v>1697.183430080417</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R6" t="n">
         <v>1697.183430080417</v>
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>419.5106457631153</v>
+        <v>646.930316449007</v>
       </c>
       <c r="C7" t="n">
-        <v>419.5106457631153</v>
+        <v>646.930316449007</v>
       </c>
       <c r="D7" t="n">
-        <v>376.2419976140245</v>
+        <v>646.930316449007</v>
       </c>
       <c r="E7" t="n">
-        <v>376.2419976140245</v>
+        <v>516.14417192365</v>
       </c>
       <c r="F7" t="n">
-        <v>199.5349435757807</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H7" t="n">
         <v>33.94366860160834</v>
@@ -4723,25 +4725,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L7" t="n">
-        <v>688.8848573262783</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M7" t="n">
-        <v>1108.937756271182</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N7" t="n">
-        <v>1528.990655216085</v>
+        <v>1292.259348259376</v>
       </c>
       <c r="O7" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q7" t="n">
         <v>1697.183430080417</v>
@@ -4768,7 +4770,7 @@
         <v>646.930316449007</v>
       </c>
       <c r="Y7" t="n">
-        <v>419.5106457631153</v>
+        <v>646.930316449007</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>851.7413961748201</v>
+        <v>510.5685620045878</v>
       </c>
       <c r="C8" t="n">
-        <v>851.7413961748201</v>
+        <v>510.5685620045878</v>
       </c>
       <c r="D8" t="n">
-        <v>423.1597219120885</v>
+        <v>510.5685620045878</v>
       </c>
       <c r="E8" t="n">
-        <v>33.94366860160834</v>
+        <v>510.5685620045878</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>510.5685620045878</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I8" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J8" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K8" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L8" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M8" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N8" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O8" t="n">
         <v>687.9235674375537</v>
@@ -4838,16 +4840,16 @@
         <v>1697.183430080417</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="W8" t="n">
-        <v>1697.183430080417</v>
+        <v>929.7110254252771</v>
       </c>
       <c r="X8" t="n">
-        <v>1278.040966659728</v>
+        <v>510.5685620045878</v>
       </c>
       <c r="Y8" t="n">
-        <v>1278.040966659728</v>
+        <v>510.5685620045878</v>
       </c>
     </row>
     <row r="9">
@@ -4872,7 +4874,7 @@
         <v>161.064410519212</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539589</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H9" t="n">
         <v>33.94366860160834</v>
@@ -4893,7 +4895,7 @@
         <v>384.5656667282782</v>
       </c>
       <c r="N9" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O9" t="n">
         <v>804.6185656731816</v>
@@ -4936,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>210.6507226398521</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="C10" t="n">
-        <v>210.6507226398521</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="D10" t="n">
-        <v>210.6507226398521</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="E10" t="n">
-        <v>210.6507226398521</v>
+        <v>516.14417192365</v>
       </c>
       <c r="F10" t="n">
-        <v>33.94366860160834</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H10" t="n">
         <v>33.94366860160834</v>
@@ -4984,28 +4986,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R10" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S10" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T10" t="n">
-        <v>1429.886162364244</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U10" t="n">
-        <v>1151.45316161735</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="V10" t="n">
-        <v>864.4976534877803</v>
+        <v>1164.348475529303</v>
       </c>
       <c r="W10" t="n">
-        <v>683.4621479923314</v>
+        <v>892.3220711155946</v>
       </c>
       <c r="X10" t="n">
-        <v>438.0703933257439</v>
+        <v>877.7207943919</v>
       </c>
       <c r="Y10" t="n">
-        <v>210.6507226398521</v>
+        <v>877.7207943919</v>
       </c>
     </row>
     <row r="11">
@@ -5021,10 +5023,10 @@
         <v>1268.601755817686</v>
       </c>
       <c r="D11" t="n">
-        <v>890.3927724551322</v>
+        <v>840.020081554954</v>
       </c>
       <c r="E11" t="n">
-        <v>461.8110981924006</v>
+        <v>411.4384072922223</v>
       </c>
       <c r="F11" t="n">
         <v>33.94366860160834</v>
@@ -5109,7 +5111,7 @@
         <v>161.064410519212</v>
       </c>
       <c r="G12" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539589</v>
       </c>
       <c r="H12" t="n">
         <v>33.94366860160834</v>
@@ -5124,19 +5126,19 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L12" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M12" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N12" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O12" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P12" t="n">
-        <v>1159.957753041174</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="Q12" t="n">
         <v>1580.010651986078</v>
@@ -5173,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>173.2329596691931</v>
+        <v>972.5298568103158</v>
       </c>
       <c r="C13" t="n">
-        <v>173.2329596691931</v>
+        <v>799.9681452935407</v>
       </c>
       <c r="D13" t="n">
-        <v>173.2329596691931</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="E13" t="n">
-        <v>173.2329596691931</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F13" t="n">
-        <v>173.2329596691931</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G13" t="n">
-        <v>173.2329596691931</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H13" t="n">
         <v>122.603617826933</v>
@@ -5197,19 +5199,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J13" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K13" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L13" t="n">
-        <v>341.7616130750586</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="M13" t="n">
-        <v>341.7616130750586</v>
+        <v>761.43086230084</v>
       </c>
       <c r="N13" t="n">
-        <v>761.8145120199619</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O13" t="n">
         <v>1181.483761245743</v>
@@ -5221,28 +5223,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R13" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S13" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T13" t="n">
-        <v>1429.886162364244</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U13" t="n">
-        <v>1151.45316161735</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="V13" t="n">
-        <v>864.4976534877803</v>
+        <v>1164.348475529303</v>
       </c>
       <c r="W13" t="n">
-        <v>592.4712490740719</v>
+        <v>1164.348475529303</v>
       </c>
       <c r="X13" t="n">
-        <v>592.4712490740719</v>
+        <v>1164.348475529303</v>
       </c>
       <c r="Y13" t="n">
-        <v>365.0515783881802</v>
+        <v>1164.348475529303</v>
       </c>
     </row>
     <row r="14">
@@ -5252,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>724.4716545351282</v>
+        <v>846.059151609114</v>
       </c>
       <c r="C14" t="n">
-        <v>724.4716545351282</v>
+        <v>846.059151609114</v>
       </c>
       <c r="D14" t="n">
-        <v>724.4716545351282</v>
+        <v>846.059151609114</v>
       </c>
       <c r="E14" t="n">
-        <v>724.4716545351282</v>
+        <v>846.059151609114</v>
       </c>
       <c r="F14" t="n">
         <v>724.4716545351282</v>
@@ -5279,22 +5281,22 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K14" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L14" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M14" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N14" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O14" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P14" t="n">
-        <v>1107.976466382457</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="Q14" t="n">
         <v>1528.02936532736</v>
@@ -5303,25 +5305,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S14" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T14" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U14" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V14" t="n">
-        <v>1334.566480014244</v>
+        <v>1250.914606198081</v>
       </c>
       <c r="W14" t="n">
-        <v>929.7110254252771</v>
+        <v>846.059151609114</v>
       </c>
       <c r="X14" t="n">
-        <v>724.4716545351282</v>
+        <v>846.059151609114</v>
       </c>
       <c r="Y14" t="n">
-        <v>724.4716545351282</v>
+        <v>846.059151609114</v>
       </c>
     </row>
     <row r="15">
@@ -5346,7 +5348,7 @@
         <v>161.064410519212</v>
       </c>
       <c r="G15" t="n">
-        <v>75.67932078539589</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H15" t="n">
         <v>33.94366860160834</v>
@@ -5358,19 +5360,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K15" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L15" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M15" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N15" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O15" t="n">
-        <v>739.9048540962709</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P15" t="n">
         <v>1159.957753041174</v>
@@ -5410,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>210.6507226398521</v>
+        <v>688.7058834404251</v>
       </c>
       <c r="C16" t="n">
-        <v>210.6507226398521</v>
+        <v>516.14417192365</v>
       </c>
       <c r="D16" t="n">
-        <v>210.6507226398521</v>
+        <v>516.14417192365</v>
       </c>
       <c r="E16" t="n">
-        <v>210.6507226398521</v>
+        <v>516.14417192365</v>
       </c>
       <c r="F16" t="n">
-        <v>33.94366860160834</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G16" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H16" t="n">
         <v>33.94366860160834</v>
@@ -5461,25 +5463,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S16" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T16" t="n">
-        <v>1467.303925334904</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U16" t="n">
-        <v>1188.870924588009</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="V16" t="n">
-        <v>901.9154164584395</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="W16" t="n">
-        <v>629.8890120447311</v>
+        <v>1107.944172845304</v>
       </c>
       <c r="X16" t="n">
-        <v>629.8890120447311</v>
+        <v>1107.944172845304</v>
       </c>
       <c r="Y16" t="n">
-        <v>402.4693413588393</v>
+        <v>880.5245021594121</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>435.3414999783445</v>
+        <v>869.7548429593813</v>
       </c>
       <c r="C17" t="n">
-        <v>435.3414999783445</v>
+        <v>462.52534286434</v>
       </c>
       <c r="D17" t="n">
-        <v>435.3414999783445</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E17" t="n">
-        <v>435.3414999783445</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F17" t="n">
-        <v>435.3414999783445</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G17" t="n">
         <v>33.94366860160834</v>
@@ -5516,25 +5518,25 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K17" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L17" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M17" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N17" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O17" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P17" t="n">
-        <v>1107.976466382457</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="Q17" t="n">
-        <v>1528.02936532736</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R17" t="n">
         <v>1697.183430080417</v>
@@ -5543,22 +5545,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T17" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U17" t="n">
-        <v>1217.893900270473</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V17" t="n">
-        <v>855.2769502042993</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W17" t="n">
-        <v>450.4214956153326</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X17" t="n">
-        <v>435.3414999783445</v>
+        <v>1278.040966659728</v>
       </c>
       <c r="Y17" t="n">
-        <v>435.3414999783445</v>
+        <v>869.7548429593813</v>
       </c>
     </row>
     <row r="18">
@@ -5610,7 +5612,7 @@
         <v>804.6185656731816</v>
       </c>
       <c r="P18" t="n">
-        <v>1159.957753041174</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="Q18" t="n">
         <v>1580.010651986078</v>
@@ -5647,49 +5649,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>47.03283704749686</v>
+        <v>947.4105542393174</v>
       </c>
       <c r="C19" t="n">
-        <v>33.94366860160834</v>
+        <v>774.8488427225424</v>
       </c>
       <c r="D19" t="n">
-        <v>33.94366860160834</v>
+        <v>608.9708499240651</v>
       </c>
       <c r="E19" t="n">
-        <v>33.94366860160834</v>
+        <v>439.2128461748023</v>
       </c>
       <c r="F19" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="G19" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H19" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I19" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J19" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K19" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L19" t="n">
-        <v>761.43086230084</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M19" t="n">
-        <v>1181.483761245743</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N19" t="n">
-        <v>1181.483761245743</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O19" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P19" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q19" t="n">
         <v>1697.183430080417</v>
@@ -5701,22 +5703,22 @@
         <v>1516.524240083786</v>
       </c>
       <c r="T19" t="n">
-        <v>1270.644793662241</v>
+        <v>1366.648843644196</v>
       </c>
       <c r="U19" t="n">
-        <v>1270.644793662241</v>
+        <v>1366.648843644196</v>
       </c>
       <c r="V19" t="n">
-        <v>983.6892855326716</v>
+        <v>1366.648843644196</v>
       </c>
       <c r="W19" t="n">
-        <v>711.6628811189632</v>
+        <v>1366.648843644196</v>
       </c>
       <c r="X19" t="n">
-        <v>466.2711264523757</v>
+        <v>1366.648843644196</v>
       </c>
       <c r="Y19" t="n">
-        <v>238.851455766484</v>
+        <v>1139.229172958305</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1361.645008385326</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="C20" t="n">
-        <v>923.502535568749</v>
+        <v>1268.601755817686</v>
       </c>
       <c r="D20" t="n">
-        <v>487.5927507431934</v>
+        <v>840.020081554954</v>
       </c>
       <c r="E20" t="n">
-        <v>53.81800590148855</v>
+        <v>411.4384072922223</v>
       </c>
       <c r="F20" t="n">
-        <v>53.81800590148855</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G20" t="n">
-        <v>53.81800590148855</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H20" t="n">
-        <v>53.81800590148855</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I20" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J20" t="n">
-        <v>488.6559039815464</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K20" t="n">
-        <v>488.6559039815464</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L20" t="n">
-        <v>488.6559039815464</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M20" t="n">
-        <v>488.6559039815464</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N20" t="n">
-        <v>632.7278666362198</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="O20" t="n">
-        <v>1293.567921177998</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="P20" t="n">
-        <v>1954.407975719776</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="Q20" t="n">
-        <v>2500.906761678371</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R20" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S20" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T20" t="n">
-        <v>2449.993599304466</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U20" t="n">
-        <v>2449.993599304466</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V20" t="n">
-        <v>2449.993599304466</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W20" t="n">
-        <v>2449.993599304466</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X20" t="n">
-        <v>2030.851135883777</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y20" t="n">
-        <v>1787.944578870233</v>
+        <v>1697.183430080417</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>559.5729615199214</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C21" t="n">
-        <v>453.1165003565636</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D21" t="n">
-        <v>358.0262115031169</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E21" t="n">
-        <v>263.9057968300706</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F21" t="n">
-        <v>180.5219584462322</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G21" t="n">
-        <v>95.13686871241609</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H21" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I21" t="n">
-        <v>79.46488968908616</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J21" t="n">
-        <v>404.0232146552985</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K21" t="n">
-        <v>1058.729261281022</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L21" t="n">
-        <v>1058.729261281022</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M21" t="n">
-        <v>1058.729261281022</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N21" t="n">
-        <v>1058.729261281022</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O21" t="n">
-        <v>1058.729261281022</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P21" t="n">
-        <v>1058.729261281022</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="Q21" t="n">
-        <v>1599.468199913098</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R21" t="n">
-        <v>1716.640978007438</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S21" t="n">
-        <v>1653.185540455821</v>
+        <v>1633.7279925288</v>
       </c>
       <c r="T21" t="n">
-        <v>1523.006896786422</v>
+        <v>1503.549348859402</v>
       </c>
       <c r="U21" t="n">
-        <v>1346.67034978639</v>
+        <v>1327.21280185937</v>
       </c>
       <c r="V21" t="n">
-        <v>1147.55283184839</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W21" t="n">
-        <v>962.2300775815838</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X21" t="n">
-        <v>807.3626418204638</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y21" t="n">
-        <v>680.8768625996845</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>789.8743303037888</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="C22" t="n">
-        <v>617.3126187870138</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="D22" t="n">
-        <v>617.3126187870138</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="E22" t="n">
-        <v>447.554615037751</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F22" t="n">
-        <v>447.554615037751</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G22" t="n">
-        <v>281.9633400635787</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H22" t="n">
-        <v>142.0611657539532</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I22" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J22" t="n">
-        <v>139.9809016933184</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K22" t="n">
-        <v>414.739356264454</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="L22" t="n">
-        <v>832.9492380324151</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M22" t="n">
-        <v>1292.433105213328</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N22" t="n">
-        <v>1734.691908370973</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O22" t="n">
-        <v>2154.361157596754</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P22" t="n">
-        <v>2501.868051567096</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q22" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R22" t="n">
-        <v>2648.6430051368</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S22" t="n">
-        <v>2537.798734086973</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T22" t="n">
-        <v>2291.919287665428</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U22" t="n">
-        <v>2013.486286918533</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="V22" t="n">
-        <v>1726.530778788964</v>
+        <v>1211.772498283812</v>
       </c>
       <c r="W22" t="n">
-        <v>1454.504374375255</v>
+        <v>1211.772498283812</v>
       </c>
       <c r="X22" t="n">
-        <v>1209.112619708668</v>
+        <v>966.3807436172247</v>
       </c>
       <c r="Y22" t="n">
-        <v>981.692949022776</v>
+        <v>966.3807436172247</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>85.91886054423605</v>
+        <v>1319.688691389803</v>
       </c>
       <c r="C23" t="n">
-        <v>53.40121652862856</v>
+        <v>891.1070171270717</v>
       </c>
       <c r="D23" t="n">
-        <v>53.40121652862856</v>
+        <v>462.52534286434</v>
       </c>
       <c r="E23" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F23" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G23" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H23" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I23" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J23" t="n">
-        <v>488.6559039815464</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K23" t="n">
-        <v>1149.495958523325</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L23" t="n">
-        <v>1810.336013065103</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M23" t="n">
-        <v>1954.407975719776</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N23" t="n">
-        <v>1954.407975719776</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O23" t="n">
-        <v>1954.407975719776</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P23" t="n">
-        <v>1954.407975719776</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="Q23" t="n">
-        <v>2500.906761678371</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R23" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S23" t="n">
-        <v>2586.408952615265</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T23" t="n">
-        <v>2366.341725488303</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U23" t="n">
-        <v>2107.11942280532</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V23" t="n">
-        <v>1744.502472739146</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W23" t="n">
-        <v>1339.64701815018</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X23" t="n">
-        <v>920.5045547294905</v>
+        <v>1319.688691389803</v>
       </c>
       <c r="Y23" t="n">
-        <v>512.2184310291439</v>
+        <v>1319.688691389803</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>559.5729615199214</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C24" t="n">
-        <v>453.1165003565636</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D24" t="n">
-        <v>358.0262115031169</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E24" t="n">
-        <v>263.9057968300706</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F24" t="n">
-        <v>180.5219584462322</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G24" t="n">
-        <v>95.13686871241609</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H24" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I24" t="n">
-        <v>79.46488968908616</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J24" t="n">
-        <v>404.0232146552985</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K24" t="n">
-        <v>1058.729261281022</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L24" t="n">
-        <v>1058.729261281022</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M24" t="n">
-        <v>1058.729261281022</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N24" t="n">
-        <v>1058.729261281022</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O24" t="n">
-        <v>1058.729261281022</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P24" t="n">
-        <v>1058.729261281022</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q24" t="n">
-        <v>1599.468199913098</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R24" t="n">
-        <v>1716.640978007438</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S24" t="n">
-        <v>1653.185540455821</v>
+        <v>1633.7279925288</v>
       </c>
       <c r="T24" t="n">
-        <v>1523.006896786422</v>
+        <v>1503.549348859402</v>
       </c>
       <c r="U24" t="n">
-        <v>1346.67034978639</v>
+        <v>1327.21280185937</v>
       </c>
       <c r="V24" t="n">
-        <v>1147.55283184839</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W24" t="n">
-        <v>962.2300775815838</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X24" t="n">
-        <v>807.3626418204638</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y24" t="n">
-        <v>680.8768625996845</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>762.8950539462408</v>
+        <v>947.4105542393174</v>
       </c>
       <c r="C25" t="n">
-        <v>590.3333424294657</v>
+        <v>774.8488427225424</v>
       </c>
       <c r="D25" t="n">
-        <v>424.4553496309884</v>
+        <v>608.9708499240651</v>
       </c>
       <c r="E25" t="n">
-        <v>254.6973458817257</v>
+        <v>439.2128461748023</v>
       </c>
       <c r="F25" t="n">
-        <v>77.99029184348186</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="G25" t="n">
-        <v>53.40121652862856</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H25" t="n">
-        <v>53.40121652862856</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I25" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J25" t="n">
-        <v>139.9809016933184</v>
+        <v>68.8461756808652</v>
       </c>
       <c r="K25" t="n">
-        <v>414.739356264454</v>
+        <v>343.6046302520008</v>
       </c>
       <c r="L25" t="n">
-        <v>832.9492380324151</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="M25" t="n">
-        <v>1292.433105213328</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="N25" t="n">
-        <v>1734.691908370973</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O25" t="n">
-        <v>2154.361157596754</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P25" t="n">
-        <v>2501.868051567096</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q25" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R25" t="n">
-        <v>2670.060826431428</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S25" t="n">
-        <v>2510.819457729425</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T25" t="n">
-        <v>2264.94001130788</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U25" t="n">
-        <v>1986.507010560985</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="V25" t="n">
-        <v>1699.551502431416</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="W25" t="n">
-        <v>1427.525098017707</v>
+        <v>1366.648843644196</v>
       </c>
       <c r="X25" t="n">
-        <v>1182.13334335112</v>
+        <v>1366.648843644196</v>
       </c>
       <c r="Y25" t="n">
-        <v>954.7136726652279</v>
+        <v>1139.229172958305</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1180.237171683855</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="C26" t="n">
-        <v>751.6554974211238</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="D26" t="n">
-        <v>323.0738231583921</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="E26" t="n">
-        <v>323.0738231583921</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="F26" t="n">
-        <v>323.0738231583921</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="G26" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H26" t="n">
         <v>33.94366860160834</v>
@@ -6227,25 +6229,25 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K26" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L26" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M26" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N26" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O26" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P26" t="n">
-        <v>1294.102365436318</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q26" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R26" t="n">
         <v>1697.183430080417</v>
@@ -6254,22 +6256,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T26" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U26" t="n">
-        <v>1217.893900270473</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V26" t="n">
-        <v>1180.237171683855</v>
+        <v>1667.625541688347</v>
       </c>
       <c r="W26" t="n">
-        <v>1180.237171683855</v>
+        <v>1262.77008709938</v>
       </c>
       <c r="X26" t="n">
-        <v>1180.237171683855</v>
+        <v>843.6276236786911</v>
       </c>
       <c r="Y26" t="n">
-        <v>1180.237171683855</v>
+        <v>435.3414999783445</v>
       </c>
     </row>
     <row r="27">
@@ -6309,16 +6311,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L27" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M27" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N27" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O27" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P27" t="n">
         <v>1159.957753041174</v>
@@ -6358,49 +6360,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>227.228030980805</v>
+        <v>1032.065694253994</v>
       </c>
       <c r="C28" t="n">
-        <v>227.228030980805</v>
+        <v>859.5039827372185</v>
       </c>
       <c r="D28" t="n">
-        <v>227.228030980805</v>
+        <v>693.6259899387412</v>
       </c>
       <c r="E28" t="n">
-        <v>57.47002723154225</v>
+        <v>523.8679861894784</v>
       </c>
       <c r="F28" t="n">
-        <v>57.47002723154225</v>
+        <v>347.1609321512346</v>
       </c>
       <c r="G28" t="n">
-        <v>33.94366860160834</v>
+        <v>181.5696571770623</v>
       </c>
       <c r="H28" t="n">
-        <v>33.94366860160834</v>
+        <v>41.66748286743683</v>
       </c>
       <c r="I28" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J28" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K28" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L28" t="n">
-        <v>813.4916901053949</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M28" t="n">
-        <v>1181.483761245743</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N28" t="n">
-        <v>1181.483761245743</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O28" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P28" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q28" t="n">
         <v>1697.183430080417</v>
@@ -6409,25 +6411,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S28" t="n">
-        <v>1537.942061378414</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T28" t="n">
-        <v>1292.062614956869</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U28" t="n">
-        <v>1013.629614209975</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="V28" t="n">
-        <v>726.6741060804052</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="W28" t="n">
-        <v>454.6477016666967</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="X28" t="n">
-        <v>454.6477016666967</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="Y28" t="n">
-        <v>227.228030980805</v>
+        <v>1223.884312972981</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>656.2017139105714</v>
+        <v>1319.688691389803</v>
       </c>
       <c r="C29" t="n">
-        <v>656.2017139105714</v>
+        <v>891.1070171270717</v>
       </c>
       <c r="D29" t="n">
-        <v>656.2017139105714</v>
+        <v>462.52534286434</v>
       </c>
       <c r="E29" t="n">
-        <v>435.3414999783445</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F29" t="n">
-        <v>435.3414999783445</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G29" t="n">
         <v>33.94366860160834</v>
@@ -6464,19 +6466,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K29" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L29" t="n">
-        <v>1107.976466382457</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M29" t="n">
-        <v>1107.976466382457</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N29" t="n">
-        <v>1107.976466382457</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O29" t="n">
-        <v>1107.976466382457</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P29" t="n">
         <v>1107.976466382457</v>
@@ -6491,22 +6493,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T29" t="n">
-        <v>1697.183430080417</v>
+        <v>1578.910994072786</v>
       </c>
       <c r="U29" t="n">
-        <v>1437.961127397434</v>
+        <v>1319.688691389803</v>
       </c>
       <c r="V29" t="n">
-        <v>1075.344177331261</v>
+        <v>1319.688691389803</v>
       </c>
       <c r="W29" t="n">
-        <v>1075.344177331261</v>
+        <v>1319.688691389803</v>
       </c>
       <c r="X29" t="n">
-        <v>656.2017139105714</v>
+        <v>1319.688691389803</v>
       </c>
       <c r="Y29" t="n">
-        <v>656.2017139105714</v>
+        <v>1319.688691389803</v>
       </c>
     </row>
     <row r="30">
@@ -6519,7 +6521,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C30" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D30" t="n">
         <v>338.5686635760967</v>
@@ -6528,10 +6530,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F30" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G30" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H30" t="n">
         <v>33.94366860160834</v>
@@ -6546,16 +6548,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L30" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M30" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N30" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O30" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P30" t="n">
         <v>1159.957753041174</v>
@@ -6595,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>221.285430710942</v>
+        <v>195.1384727187784</v>
       </c>
       <c r="C31" t="n">
-        <v>48.72371919416696</v>
+        <v>195.1384727187784</v>
       </c>
       <c r="D31" t="n">
-        <v>48.72371919416696</v>
+        <v>195.1384727187784</v>
       </c>
       <c r="E31" t="n">
-        <v>48.72371919416696</v>
+        <v>195.1384727187784</v>
       </c>
       <c r="F31" t="n">
         <v>33.94366860160834</v>
@@ -6619,25 +6621,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J31" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K31" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L31" t="n">
-        <v>761.43086230084</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M31" t="n">
-        <v>1181.483761245743</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N31" t="n">
-        <v>1181.483761245743</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O31" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P31" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q31" t="n">
         <v>1697.183430080417</v>
@@ -6649,22 +6651,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T31" t="n">
-        <v>1451.303983658873</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U31" t="n">
-        <v>1172.870982911978</v>
+        <v>1418.750429333523</v>
       </c>
       <c r="V31" t="n">
-        <v>885.9154747824084</v>
+        <v>1131.794921203953</v>
       </c>
       <c r="W31" t="n">
-        <v>885.9154747824084</v>
+        <v>859.7685167902448</v>
       </c>
       <c r="X31" t="n">
-        <v>640.5237201158209</v>
+        <v>614.3767621236573</v>
       </c>
       <c r="Y31" t="n">
-        <v>413.1040494299291</v>
+        <v>386.9570914377655</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>771.6250763881362</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="C32" t="n">
-        <v>771.6250763881362</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="D32" t="n">
-        <v>724.4716545351282</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="E32" t="n">
-        <v>724.4716545351282</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="F32" t="n">
-        <v>724.4716545351282</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G32" t="n">
         <v>323.0738231583921</v>
@@ -6707,10 +6709,10 @@
         <v>33.94366860160834</v>
       </c>
       <c r="M32" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N32" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O32" t="n">
         <v>687.9235674375537</v>
@@ -6737,13 +6739,13 @@
         <v>771.6250763881362</v>
       </c>
       <c r="W32" t="n">
-        <v>771.6250763881362</v>
+        <v>366.7696217991695</v>
       </c>
       <c r="X32" t="n">
-        <v>771.6250763881362</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="Y32" t="n">
-        <v>771.6250763881362</v>
+        <v>323.0738231583921</v>
       </c>
     </row>
     <row r="33">
@@ -6783,16 +6785,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L33" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M33" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N33" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O33" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P33" t="n">
         <v>1159.957753041174</v>
@@ -6832,46 +6834,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1113.00182921349</v>
+        <v>194.6507809638211</v>
       </c>
       <c r="C34" t="n">
-        <v>940.4401176967148</v>
+        <v>194.6507809638211</v>
       </c>
       <c r="D34" t="n">
-        <v>774.5621248982375</v>
+        <v>194.6507809638211</v>
       </c>
       <c r="E34" t="n">
-        <v>604.8041211489747</v>
+        <v>194.6507809638211</v>
       </c>
       <c r="F34" t="n">
-        <v>428.0970671107308</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G34" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H34" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I34" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J34" t="n">
-        <v>68.4625259617433</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K34" t="n">
-        <v>343.2209805328789</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L34" t="n">
-        <v>761.43086230084</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M34" t="n">
-        <v>1181.483761245743</v>
+        <v>1233.544589050298</v>
       </c>
       <c r="N34" t="n">
-        <v>1181.483761245743</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="O34" t="n">
-        <v>1181.483761245743</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="P34" t="n">
         <v>1528.990655216085</v>
@@ -6880,28 +6882,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R34" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S34" t="n">
-        <v>1516.524240083786</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T34" t="n">
-        <v>1516.524240083786</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U34" t="n">
-        <v>1516.524240083786</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V34" t="n">
-        <v>1229.568731954216</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W34" t="n">
-        <v>1229.568731954216</v>
+        <v>613.8890703687</v>
       </c>
       <c r="X34" t="n">
-        <v>1229.568731954216</v>
+        <v>613.8890703687</v>
       </c>
       <c r="Y34" t="n">
-        <v>1229.568731954216</v>
+        <v>386.4693996828083</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1187.231985779346</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="C35" t="n">
-        <v>1179.522927011916</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="D35" t="n">
-        <v>1179.522927011916</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="E35" t="n">
-        <v>750.9412527491843</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="F35" t="n">
-        <v>323.0738231583921</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="G35" t="n">
         <v>323.0738231583921</v>
@@ -6935,25 +6937,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J35" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K35" t="n">
-        <v>874.0494664914149</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L35" t="n">
-        <v>1107.976466382457</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M35" t="n">
-        <v>1107.976466382457</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="N35" t="n">
-        <v>1107.976466382457</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O35" t="n">
         <v>1107.976466382457</v>
       </c>
       <c r="P35" t="n">
-        <v>1107.976466382457</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="Q35" t="n">
         <v>1528.02936532736</v>
@@ -6962,25 +6964,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S35" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T35" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U35" t="n">
-        <v>1613.531556264254</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="V35" t="n">
-        <v>1613.531556264254</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="W35" t="n">
-        <v>1613.531556264254</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="X35" t="n">
-        <v>1613.531556264254</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="Y35" t="n">
-        <v>1613.531556264254</v>
+        <v>724.4716545351282</v>
       </c>
     </row>
     <row r="36">
@@ -7069,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>546.0000013632873</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="C37" t="n">
-        <v>546.0000013632873</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="D37" t="n">
-        <v>546.0000013632873</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="E37" t="n">
-        <v>376.2419976140245</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="F37" t="n">
         <v>199.5349435757807</v>
@@ -7093,25 +7095,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J37" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K37" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L37" t="n">
-        <v>813.4916901053949</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M37" t="n">
-        <v>1181.483761245743</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N37" t="n">
-        <v>1181.483761245743</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O37" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P37" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q37" t="n">
         <v>1697.183430080417</v>
@@ -7123,22 +7125,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T37" t="n">
-        <v>1697.183430080417</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U37" t="n">
-        <v>1697.183430080417</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V37" t="n">
-        <v>1410.227921950848</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W37" t="n">
-        <v>1138.201517537139</v>
+        <v>613.8890703687</v>
       </c>
       <c r="X37" t="n">
-        <v>892.8097628705518</v>
+        <v>368.4973157021125</v>
       </c>
       <c r="Y37" t="n">
-        <v>665.39009218466</v>
+        <v>199.5349435757807</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1180.237171683855</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="C38" t="n">
-        <v>1180.237171683855</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="D38" t="n">
-        <v>751.6554974211238</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="E38" t="n">
-        <v>323.0738231583921</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="F38" t="n">
-        <v>323.0738231583921</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="G38" t="n">
         <v>323.0738231583921</v>
@@ -7172,19 +7174,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J38" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K38" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L38" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M38" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N38" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O38" t="n">
         <v>687.9235674375537</v>
@@ -7199,25 +7201,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S38" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T38" t="n">
-        <v>1439.459474366839</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U38" t="n">
-        <v>1180.237171683855</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V38" t="n">
-        <v>1180.237171683855</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="W38" t="n">
-        <v>1180.237171683855</v>
+        <v>929.7110254252771</v>
       </c>
       <c r="X38" t="n">
-        <v>1180.237171683855</v>
+        <v>929.7110254252771</v>
       </c>
       <c r="Y38" t="n">
-        <v>1180.237171683855</v>
+        <v>724.4716545351282</v>
       </c>
     </row>
     <row r="39">
@@ -7230,7 +7232,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C39" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D39" t="n">
         <v>338.5686635760967</v>
@@ -7239,10 +7241,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F39" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G39" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H39" t="n">
         <v>33.94366860160834</v>
@@ -7306,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>33.94366860160834</v>
+        <v>466.6771853775295</v>
       </c>
       <c r="C40" t="n">
-        <v>33.94366860160834</v>
+        <v>294.1154738607544</v>
       </c>
       <c r="D40" t="n">
-        <v>33.94366860160834</v>
+        <v>203.7016723508711</v>
       </c>
       <c r="E40" t="n">
         <v>33.94366860160834</v>
@@ -7330,19 +7332,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J40" t="n">
-        <v>120.5233537662982</v>
+        <v>68.8461756808652</v>
       </c>
       <c r="K40" t="n">
-        <v>395.2818083374338</v>
+        <v>343.6046302520008</v>
       </c>
       <c r="L40" t="n">
-        <v>813.4916901053949</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="M40" t="n">
-        <v>1181.483761245743</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="N40" t="n">
-        <v>1181.483761245743</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O40" t="n">
         <v>1181.483761245743</v>
@@ -7354,28 +7356,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R40" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S40" t="n">
-        <v>1516.524240083786</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T40" t="n">
-        <v>1270.644793662241</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U40" t="n">
-        <v>992.2117929153466</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V40" t="n">
-        <v>970.6001170867833</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W40" t="n">
-        <v>698.5737126730747</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="X40" t="n">
-        <v>453.1819580064872</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.7622873205955</v>
+        <v>658.4958040965166</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1153.05332879786</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="C41" t="n">
-        <v>1153.05332879786</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="D41" t="n">
-        <v>1153.05332879786</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="E41" t="n">
-        <v>724.4716545351282</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="F41" t="n">
-        <v>724.4716545351282</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G41" t="n">
         <v>323.0738231583921</v>
@@ -7424,10 +7426,10 @@
         <v>1107.976466382457</v>
       </c>
       <c r="O41" t="n">
-        <v>1107.976466382457</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="P41" t="n">
-        <v>1107.976466382457</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="Q41" t="n">
         <v>1528.02936532736</v>
@@ -7436,25 +7438,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S41" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T41" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U41" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V41" t="n">
-        <v>1579.352899282768</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="W41" t="n">
-        <v>1579.352899282768</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="X41" t="n">
-        <v>1579.352899282768</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="Y41" t="n">
-        <v>1579.352899282768</v>
+        <v>751.6554974211238</v>
       </c>
     </row>
     <row r="42">
@@ -7488,19 +7490,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J42" t="n">
-        <v>33.94366860160834</v>
+        <v>358.5019935678207</v>
       </c>
       <c r="K42" t="n">
-        <v>33.94366860160834</v>
+        <v>358.5019935678207</v>
       </c>
       <c r="L42" t="n">
-        <v>33.94366860160834</v>
+        <v>358.5019935678207</v>
       </c>
       <c r="M42" t="n">
-        <v>33.94366860160834</v>
+        <v>358.5019935678207</v>
       </c>
       <c r="N42" t="n">
-        <v>319.8519551513677</v>
+        <v>358.5019935678207</v>
       </c>
       <c r="O42" t="n">
         <v>739.9048540962709</v>
@@ -7543,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>718.8484307043673</v>
+        <v>873.3120173069476</v>
       </c>
       <c r="C43" t="n">
-        <v>546.2867191875922</v>
+        <v>700.7503057901725</v>
       </c>
       <c r="D43" t="n">
-        <v>380.4087263891149</v>
+        <v>534.8723129916953</v>
       </c>
       <c r="E43" t="n">
-        <v>210.6507226398521</v>
+        <v>365.1143092424325</v>
       </c>
       <c r="F43" t="n">
-        <v>33.94366860160834</v>
+        <v>188.4072552041887</v>
       </c>
       <c r="G43" t="n">
         <v>33.94366860160834</v>
@@ -7570,19 +7572,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K43" t="n">
-        <v>308.7021231727439</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L43" t="n">
-        <v>726.9120049407049</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M43" t="n">
-        <v>726.9120049407049</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N43" t="n">
-        <v>1146.964903885608</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O43" t="n">
-        <v>1566.63415311139</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P43" t="n">
         <v>1697.183430080417</v>
@@ -7594,25 +7596,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S43" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T43" t="n">
-        <v>1451.303983658873</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="U43" t="n">
-        <v>1172.870982911978</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="V43" t="n">
-        <v>990.8748351180757</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="W43" t="n">
-        <v>718.8484307043673</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="X43" t="n">
-        <v>718.8484307043673</v>
+        <v>1292.550306711827</v>
       </c>
       <c r="Y43" t="n">
-        <v>718.8484307043673</v>
+        <v>1065.130636025935</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>541.4004696563243</v>
+        <v>84.26899151967996</v>
       </c>
       <c r="C44" t="n">
-        <v>541.4004696563243</v>
+        <v>84.26899151967996</v>
       </c>
       <c r="D44" t="n">
-        <v>380.2972488207532</v>
+        <v>84.26899151967996</v>
       </c>
       <c r="E44" t="n">
-        <v>380.2972488207532</v>
+        <v>84.26899151967996</v>
       </c>
       <c r="F44" t="n">
-        <v>197.3916847476707</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G44" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H44" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I44" t="n">
-        <v>14.48612067458814</v>
+        <v>85.02847154687561</v>
       </c>
       <c r="J44" t="n">
-        <v>193.7518640226163</v>
+        <v>198.3915302050083</v>
       </c>
       <c r="K44" t="n">
-        <v>193.7518640226163</v>
+        <v>368.2933687921386</v>
       </c>
       <c r="L44" t="n">
-        <v>193.7518640226163</v>
+        <v>579.0716233077371</v>
       </c>
       <c r="M44" t="n">
-        <v>193.7518640226163</v>
+        <v>813.6030440780562</v>
       </c>
       <c r="N44" t="n">
-        <v>193.7518640226163</v>
+        <v>1051.92942843149</v>
       </c>
       <c r="O44" t="n">
-        <v>196.6204822802937</v>
+        <v>1276.974275035835</v>
       </c>
       <c r="P44" t="n">
-        <v>375.8862256283219</v>
+        <v>1469.044845016103</v>
       </c>
       <c r="Q44" t="n">
-        <v>555.1519689763501</v>
+        <v>1613.28184409613</v>
       </c>
       <c r="R44" t="n">
-        <v>724.3060337294069</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S44" t="n">
-        <v>724.3060337294069</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T44" t="n">
-        <v>541.4004696563243</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U44" t="n">
-        <v>541.4004696563243</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V44" t="n">
-        <v>541.4004696563243</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="W44" t="n">
-        <v>541.4004696563243</v>
+        <v>929.7110254252771</v>
       </c>
       <c r="X44" t="n">
-        <v>541.4004696563243</v>
+        <v>510.5685620045878</v>
       </c>
       <c r="Y44" t="n">
-        <v>541.4004696563243</v>
+        <v>510.5685620045878</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>477.9450321047074</v>
+        <v>532.3441565755794</v>
       </c>
       <c r="C45" t="n">
-        <v>414.2014045025232</v>
+        <v>425.8876954122217</v>
       </c>
       <c r="D45" t="n">
-        <v>319.1111156490765</v>
+        <v>330.7974065587749</v>
       </c>
       <c r="E45" t="n">
-        <v>224.9907009760302</v>
+        <v>236.6769918857286</v>
       </c>
       <c r="F45" t="n">
-        <v>141.6068625921918</v>
+        <v>153.2931535018903</v>
       </c>
       <c r="G45" t="n">
-        <v>56.22177285837567</v>
+        <v>68.63721874747718</v>
       </c>
       <c r="H45" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I45" t="n">
-        <v>40.54979383504573</v>
+        <v>84.61243668840937</v>
       </c>
       <c r="J45" t="n">
-        <v>219.8155371830739</v>
+        <v>476.1060756401158</v>
       </c>
       <c r="K45" t="n">
-        <v>399.0812805311022</v>
+        <v>591.5055380481649</v>
       </c>
       <c r="L45" t="n">
-        <v>427.8675122870389</v>
+        <v>746.674356433978</v>
       </c>
       <c r="M45" t="n">
-        <v>607.133255635067</v>
+        <v>927.7490486498837</v>
       </c>
       <c r="N45" t="n">
-        <v>607.133255635067</v>
+        <v>1113.616249164182</v>
       </c>
       <c r="O45" t="n">
-        <v>607.133255635067</v>
+        <v>1283.648425529704</v>
       </c>
       <c r="P45" t="n">
-        <v>607.133255635067</v>
+        <v>1420.114237364499</v>
       </c>
       <c r="Q45" t="n">
-        <v>607.133255635067</v>
+        <v>1511.338018604792</v>
       </c>
       <c r="R45" t="n">
-        <v>724.3060337294069</v>
+        <v>1672.881462148471</v>
       </c>
       <c r="S45" t="n">
-        <v>660.85059617779</v>
+        <v>1622.96975853445</v>
       </c>
       <c r="T45" t="n">
-        <v>660.85059617779</v>
+        <v>1495.730121119751</v>
       </c>
       <c r="U45" t="n">
-        <v>660.85059617779</v>
+        <v>1319.441544842048</v>
       </c>
       <c r="V45" t="n">
-        <v>477.9450321047074</v>
+        <v>1120.324026904048</v>
       </c>
       <c r="W45" t="n">
-        <v>477.9450321047074</v>
+        <v>935.0012726372418</v>
       </c>
       <c r="X45" t="n">
-        <v>477.9450321047074</v>
+        <v>780.1338368761218</v>
       </c>
       <c r="Y45" t="n">
-        <v>477.9450321047074</v>
+        <v>653.6480576553425</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>191.1931747128319</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="C46" t="n">
-        <v>191.1931747128319</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="D46" t="n">
-        <v>191.1931747128319</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="E46" t="n">
-        <v>191.1931747128319</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F46" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G46" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H46" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I46" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J46" t="n">
-        <v>18.3160288209901</v>
+        <v>76.30245582865297</v>
       </c>
       <c r="K46" t="n">
-        <v>18.3160288209901</v>
+        <v>420.6694099190929</v>
       </c>
       <c r="L46" t="n">
-        <v>18.3160288209901</v>
+        <v>803.9894702589629</v>
       </c>
       <c r="M46" t="n">
-        <v>18.3160288209901</v>
+        <v>1224.042369203866</v>
       </c>
       <c r="N46" t="n">
-        <v>197.5817721690183</v>
+        <v>1315.72624028434</v>
       </c>
       <c r="O46" t="n">
-        <v>376.8475155170465</v>
+        <v>1400.411134691706</v>
       </c>
       <c r="P46" t="n">
-        <v>556.1132588650746</v>
+        <v>1472.873691624791</v>
       </c>
       <c r="Q46" t="n">
-        <v>724.3060337294069</v>
+        <v>1691.235784882888</v>
       </c>
       <c r="R46" t="n">
-        <v>724.3060337294069</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S46" t="n">
-        <v>724.3060337294069</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T46" t="n">
-        <v>724.3060337294069</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U46" t="n">
-        <v>557.0043028589971</v>
+        <v>1434.262679254597</v>
       </c>
       <c r="V46" t="n">
-        <v>374.0987387859145</v>
+        <v>1147.307171125027</v>
       </c>
       <c r="W46" t="n">
-        <v>374.0987387859145</v>
+        <v>875.2807667113186</v>
       </c>
       <c r="X46" t="n">
-        <v>374.0987387859145</v>
+        <v>629.8890120447311</v>
       </c>
       <c r="Y46" t="n">
-        <v>191.1931747128319</v>
+        <v>402.4693413588393</v>
       </c>
     </row>
   </sheetData>
@@ -7988,16 +7990,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="O2" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8052,19 +8054,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>262.4693064538401</v>
       </c>
       <c r="K3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="M3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8073,7 +8075,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8134,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
-        <v>371.7091627680287</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8216,13 +8218,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -8231,7 +8233,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>424.2958575201044</v>
@@ -8298,7 +8300,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
-        <v>52.98895607821112</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8371,13 +8373,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>296.5687363523682</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
         <v>424.2958575201044</v>
@@ -8386,13 +8388,13 @@
         <v>424.2958575201044</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>409.0142240616578</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8462,10 +8464,10 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="O8" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P8" t="n">
         <v>424.2958575201044</v>
@@ -8541,10 +8543,10 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>358.9284720888814</v>
@@ -8772,7 +8774,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L12" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="Q12" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8845,22 +8847,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>310.9272166398487</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="N13" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>351.0170646165068</v>
@@ -8927,7 +8929,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8945,7 +8947,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="Q14" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697543</v>
@@ -9006,7 +9008,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9018,10 +9020,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q15" t="n">
         <v>424.2958575201044</v>
@@ -9164,7 +9166,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9176,16 +9178,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>424.2958575201044</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="Q17" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9258,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>358.9284720888814</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="Q18" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9319,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>369.8475292559658</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
+        <v>409.401749030468</v>
+      </c>
+      <c r="N19" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9398,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N20" t="n">
-        <v>145.5272350047205</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O20" t="n">
-        <v>667.515206607857</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P20" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697543</v>
@@ -9480,7 +9482,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158827</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9495,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9559,25 +9561,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>320.0858880793245</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N22" t="n">
-        <v>446.7260637956006</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O22" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9635,16 +9637,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K23" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L23" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9653,13 +9655,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,7 +9719,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158827</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9732,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9793,7 +9795,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>35.25505765581501</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -9802,10 +9804,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>423.9083325512944</v>
@@ -9875,7 +9877,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K26" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9893,10 +9895,10 @@
         <v>424.2958575201044</v>
       </c>
       <c r="Q26" t="n">
-        <v>407.1525905495951</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9957,19 +9959,19 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>424.2958575201044</v>
@@ -10030,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>371.7091627680287</v>
+        <v>409.401749030468</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10112,22 +10114,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K29" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q29" t="n">
         <v>424.2958575201044</v>
@@ -10194,19 +10196,19 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>424.2958575201044</v>
@@ -10267,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>369.8475292559658</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M31" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="N31" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10355,13 +10357,13 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="O32" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P32" t="n">
         <v>424.2958575201044</v>
@@ -10431,19 +10433,19 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>424.2958575201044</v>
@@ -10504,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>34.86753268700501</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -10513,16 +10515,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>298.4303698644312</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>169.8916917821538</v>
@@ -10583,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="N35" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K35" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="L35" t="n">
-        <v>236.2898988798406</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q35" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>170.8626916697543</v>
@@ -10741,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M37" t="n">
-        <v>371.7091627680287</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10832,10 +10834,10 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="O38" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P38" t="n">
         <v>424.2958575201044</v>
@@ -10978,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>35.25505765581501</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -10987,13 +10989,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
         <v>351.0170646165068</v>
@@ -11072,13 +11074,13 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>170.8626916697543</v>
@@ -11136,7 +11138,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11148,10 +11150,10 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>424.2958575201043</v>
+        <v>385.2554146752023</v>
       </c>
       <c r="P42" t="n">
         <v>424.2958575201044</v>
@@ -11218,22 +11220,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N43" t="n">
-        <v>424.2958575201044</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O43" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
-        <v>131.8679565343714</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11309,16 +11311,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>2.89759419967416</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,16 +11375,16 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>181.0765084323517</v>
+        <v>327.2478563935574</v>
       </c>
       <c r="K45" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>29.07700177367349</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11452,25 +11454,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>3.868594087274712</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>297.2173195179364</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>329.4301932710911</v>
       </c>
       <c r="N46" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>169.8916917821538</v>
@@ -22544,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>240.112063921663</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
         <v>433.7610480884109</v>
@@ -22598,7 +22600,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
@@ -22607,10 +22609,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>15.15997307239491</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22708,22 +22710,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>47.63686611530902</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22759,16 +22761,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>165.0068881771941</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -22784,16 +22786,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>366.5182875619358</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E5" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -22832,7 +22834,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
@@ -22841,16 +22843,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>100.2631643376599</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -22945,10 +22947,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>121.3832512028927</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>38.58214063166665</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -22957,7 +22959,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -23008,7 +23010,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -23018,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>44.11310461591245</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>212.1766830843664</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23078,10 +23080,10 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -23176,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
@@ -23185,16 +23187,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -23224,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
@@ -23233,19 +23235,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>90.08098992907699</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>228.482573163464</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -23261,13 +23263,13 @@
         <v>9.465190568306582</v>
       </c>
       <c r="D11" t="n">
-        <v>57.123793448372</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E11" t="n">
         <v>5.14113987318342</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>49.86896399117649</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
@@ -23416,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>139.0672526791423</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>88.38010414269176</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -23470,19 +23472,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -23504,7 +23506,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>303.2171331916384</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23543,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -23558,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>211.764061605235</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -23653,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -23665,10 +23667,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23701,19 +23703,19 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>15.83994225927094</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>87.02888267912164</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -23732,10 +23734,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>30.60384299432002</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -23744,7 +23746,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
@@ -23783,22 +23785,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>400.0218431058642</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23890,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>157.8778176401777</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,19 +23943,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>95.04400948213558</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23966,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>49.86896399117649</v>
       </c>
       <c r="G20" t="n">
         <v>397.3838530629687</v>
@@ -23987,7 +23989,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24020,7 +24022,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
@@ -24032,10 +24034,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>163.7257710199346</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -24127,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
@@ -24136,7 +24138,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24175,25 +24177,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>47.91312667565407</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>225.8023806236291</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -24203,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>401.5685805129595</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F23" t="n">
         <v>423.5887552948843</v>
@@ -24254,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>41.23124748277456</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -24376,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>139.5921776627258</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>120.9294978943777</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24443,10 +24445,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
         <v>429.4369973932878</v>
@@ -24455,10 +24457,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I26" t="n">
         <v>0.4126214791313976</v>
@@ -24494,22 +24496,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V26" t="n">
-        <v>321.7106192647605</v>
+        <v>329.7284710573622</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>140.644267180796</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>80.12677360990121</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,19 +24651,19 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
@@ -24680,19 +24682,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E29" t="n">
-        <v>210.7853856003832</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F29" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H29" t="n">
         <v>286.2388530112159</v>
@@ -24731,19 +24733,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T29" t="n">
-        <v>217.8665548556918</v>
+        <v>100.7768432081372</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
         <v>404.2032624633431</v>
@@ -24838,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
@@ -24847,7 +24849,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>160.3077334112283</v>
+        <v>15.35712742186297</v>
       </c>
       <c r="G31" t="n">
         <v>163.9353622244306</v>
@@ -24889,7 +24891,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24920,7 +24922,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>384.8687993428219</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
         <v>429.4369973932878</v>
@@ -24929,7 +24931,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24977,10 +24979,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>371.6921981321128</v>
       </c>
       <c r="Y32" t="n">
         <v>404.2032624633431</v>
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>74.49919881847789</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>15.83994225927069</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25151,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>426.1290799086548</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25202,19 +25204,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>53.44310247490591</v>
       </c>
       <c r="X35" t="n">
         <v>414.9510387864824</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>71.70424261863825</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
@@ -25318,10 +25320,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25363,10 +25365,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>57.87272557396435</v>
       </c>
     </row>
     <row r="38">
@@ -25394,16 +25396,16 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25439,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>45.53519377725021</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>201.0162852820957</v>
       </c>
     </row>
     <row r="39">
@@ -25549,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>74.70954937570802</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>262.6903939779962</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25625,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25676,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>242.3385550758387</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>381.0370168657346</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25798,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>11.01641148787604</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
@@ -25834,25 +25836,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>103.9097667323106</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25862,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>272.0584983500846</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>242.5122468625326</v>
+        <v>373.7666856059934</v>
       </c>
       <c r="G44" t="n">
-        <v>216.307344630617</v>
+        <v>396.0346945768795</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>272.4217836655541</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>52.07140607624191</v>
       </c>
       <c r="T44" t="n">
-        <v>36.79004642334004</v>
+        <v>211.9606135828359</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>256.5221469772661</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -25941,10 +25943,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>120.0908620689655</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>42.2857052255618</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -25995,22 +25997,22 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>128.8768572327044</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>174.5731815300314</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>16.04983432626892</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>183.4695267241379</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>153.3187614035088</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>125.2209214285714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
@@ -26035,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>163.3301761740106</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>133.122498409159</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>69.57375468953282</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>147.1022126635735</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>240.8348570146258</v>
       </c>
       <c r="U46" t="n">
-        <v>110.0199571777201</v>
+        <v>15.32411727365847</v>
       </c>
       <c r="V46" t="n">
-        <v>103.0094446159221</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>44.06896554668108</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>361461.2207069529</v>
+        <v>361461.2207069528</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>361461.2207069529</v>
+        <v>361461.220706953</v>
       </c>
     </row>
     <row r="4">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>508488.5067549167</v>
+        <v>361461.2207069529</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>508488.5067549167</v>
+        <v>361461.220706953</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>361461.2207069529</v>
+        <v>361461.220706953</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>361461.2207069529</v>
+        <v>361461.220706953</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>154260.6052339537</v>
+        <v>333931.0161129882</v>
       </c>
     </row>
   </sheetData>
@@ -26329,10 +26331,10 @@
         <v>102171.9869277625</v>
       </c>
       <c r="H2" t="n">
-        <v>143731.2720946097</v>
+        <v>102171.9869277625</v>
       </c>
       <c r="I2" t="n">
-        <v>143731.2720946097</v>
+        <v>102171.9869277625</v>
       </c>
       <c r="J2" t="n">
         <v>102171.9869277625</v>
@@ -26353,7 +26355,7 @@
         <v>102171.9869277625</v>
       </c>
       <c r="P2" t="n">
-        <v>43603.88234900099</v>
+        <v>104539.793733375</v>
       </c>
     </row>
     <row r="3">
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>65622.76935801745</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>47377.58197227423</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>223369.4177486677</v>
       </c>
     </row>
     <row r="4">
@@ -26433,10 +26435,10 @@
         <v>43292.95496317923</v>
       </c>
       <c r="H4" t="n">
-        <v>60902.71586860553</v>
+        <v>43292.95496317923</v>
       </c>
       <c r="I4" t="n">
-        <v>60902.71586860552</v>
+        <v>43292.95496317923</v>
       </c>
       <c r="J4" t="n">
         <v>43292.95496317923</v>
@@ -26457,7 +26459,7 @@
         <v>43292.95496317923</v>
       </c>
       <c r="P4" t="n">
-        <v>18476.11044394912</v>
+        <v>8379.203228500526</v>
       </c>
     </row>
     <row r="5">
@@ -26485,10 +26487,10 @@
         <v>25797.18813722234</v>
       </c>
       <c r="H5" t="n">
-        <v>40584.9245617577</v>
+        <v>25797.18813722234</v>
       </c>
       <c r="I5" t="n">
-        <v>40584.9245617577</v>
+        <v>25797.18813722234</v>
       </c>
       <c r="J5" t="n">
         <v>25797.18813722234</v>
@@ -26509,7 +26511,7 @@
         <v>25797.18813722234</v>
       </c>
       <c r="P5" t="n">
-        <v>11009.45171268698</v>
+        <v>33113.33731766298</v>
       </c>
     </row>
     <row r="6">
@@ -26522,10 +26524,10 @@
         <v>-142737.056832349</v>
       </c>
       <c r="C6" t="n">
-        <v>-545.756172639085</v>
+        <v>-545.7561726390704</v>
       </c>
       <c r="D6" t="n">
-        <v>-545.7561726390632</v>
+        <v>-545.7561726390704</v>
       </c>
       <c r="E6" t="n">
         <v>33081.84382736094</v>
@@ -26534,34 +26536,34 @@
         <v>33081.84382736094</v>
       </c>
       <c r="G6" t="n">
-        <v>33081.84382736093</v>
+        <v>33081.84382736092</v>
       </c>
       <c r="H6" t="n">
-        <v>-23379.13769377098</v>
+        <v>33081.84382736094</v>
       </c>
       <c r="I6" t="n">
-        <v>42243.63166424649</v>
+        <v>33081.84382736092</v>
       </c>
       <c r="J6" t="n">
-        <v>-14295.73814491329</v>
+        <v>-77932.62151762925</v>
       </c>
       <c r="K6" t="n">
         <v>33081.84382736094</v>
       </c>
       <c r="L6" t="n">
-        <v>33081.84382736093</v>
+        <v>33081.84382736092</v>
       </c>
       <c r="M6" t="n">
-        <v>33081.84382736091</v>
+        <v>33081.84382736094</v>
       </c>
       <c r="N6" t="n">
-        <v>33081.84382736094</v>
+        <v>33081.84382736095</v>
       </c>
       <c r="O6" t="n">
-        <v>33081.84382736093</v>
+        <v>33081.84382736095</v>
       </c>
       <c r="P6" t="n">
-        <v>14118.32019236489</v>
+        <v>-160322.1645614562</v>
       </c>
     </row>
   </sheetData>
@@ -26777,7 +26779,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>335.6031734147081</v>
       </c>
     </row>
     <row r="4">
@@ -26805,10 +26807,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="H4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="I4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="J4" t="n">
         <v>424.2958575201043</v>
@@ -26829,7 +26831,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="P4" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201043</v>
       </c>
     </row>
   </sheetData>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>335.6031734147081</v>
       </c>
     </row>
     <row r="4">
@@ -27027,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>243.2193490877526</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>243.2193490877526</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1.349158486089278</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>13.81706934566182</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>52.01343253495693</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>114.5081400587199</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>171.6180187748791</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>212.9073277935339</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>236.900425020524</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>240.7337215691252</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>227.318026873075</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>194.0106767477459</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>145.6939384646736</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>84.74907675180566</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>30.74394900175945</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>5.905941272855816</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>0.1079326788871422</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.7218634296089947</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>6.971681017539503</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>24.85363123873074</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>68.20026375968139</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>116.565113543484</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>156.7361801876899</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>182.9037295110159</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>187.7446469841394</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>171.7496730964874</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>137.8442543785808</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>92.14523357605344</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>44.81885398923217</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>13.4082965982197</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>2.909616192152043</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>0.04749101510585493</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.6051860504199653</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>5.380654157370241</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>18.1995950435386</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>42.78665376469154</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>70.31161567606505</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>89.97466062334649</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>94.86566424901328</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>92.60997078835712</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>85.54029738117841</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>73.19450195261105</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>50.67607918562091</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>27.21136550342861</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>10.54674235140975</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>2.585794942703488</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>0.03301014820472542</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34708,16 +34710,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="O2" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,19 +34774,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>262.4693064538401</v>
       </c>
       <c r="K3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="M3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34793,7 +34795,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
-        <v>371.7091627680287</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,13 +34938,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -34951,7 +34953,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>424.2958575201044</v>
@@ -35018,7 +35020,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
-        <v>52.98895607821112</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35030,13 +35032,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,13 +35093,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>296.5687363523682</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
         <v>424.2958575201044</v>
@@ -35106,13 +35108,13 @@
         <v>424.2958575201044</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>409.0142240616578</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -35182,10 +35184,10 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="O8" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P8" t="n">
         <v>424.2958575201044</v>
@@ -35261,10 +35263,10 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>358.9284720888814</v>
@@ -35492,7 +35494,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L12" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35504,10 +35506,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="Q12" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>310.9272166398487</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="N13" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>351.0170646165068</v>
@@ -35647,7 +35649,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -35665,7 +35667,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="Q14" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697544</v>
@@ -35726,7 +35728,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35738,10 +35740,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q15" t="n">
         <v>424.2958575201044</v>
@@ -35884,7 +35886,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -35896,16 +35898,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>424.2958575201044</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="Q17" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35978,10 +35980,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>358.9284720888814</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="Q18" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>369.8475292559658</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
+        <v>409.401749030468</v>
+      </c>
+      <c r="N19" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N20" t="n">
-        <v>145.5272350047205</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O20" t="n">
-        <v>667.515206607857</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P20" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697544</v>
@@ -36200,7 +36202,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158827</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36215,10 +36217,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>320.0858880793245</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N22" t="n">
-        <v>446.7260637956006</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
-        <v>351.017064616507</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K23" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L23" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -36373,13 +36375,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,7 +36439,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158827</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36452,10 +36454,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36513,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908068</v>
+        <v>35.25505765581501</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36522,16 +36524,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
         <v>169.8916917821539</v>
@@ -36595,7 +36597,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K26" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -36613,10 +36615,10 @@
         <v>424.2958575201044</v>
       </c>
       <c r="Q26" t="n">
-        <v>407.1525905495951</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,19 +36679,19 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>424.2958575201044</v>
@@ -36750,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>371.7091627680287</v>
+        <v>409.401749030468</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,22 +36834,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K29" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q29" t="n">
         <v>424.2958575201044</v>
@@ -36914,19 +36916,19 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>424.2958575201044</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>369.8475292559658</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M31" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="N31" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37075,13 +37077,13 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="O32" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P32" t="n">
         <v>424.2958575201044</v>
@@ -37151,19 +37153,19 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>424.2958575201044</v>
@@ -37224,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>34.86753268700501</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -37233,16 +37235,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>298.4303698644312</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>169.8916917821539</v>
@@ -37303,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="N35" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K35" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="L35" t="n">
-        <v>236.2898988798406</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q35" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>170.8626916697544</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M37" t="n">
-        <v>371.7091627680287</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -37552,10 +37554,10 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="O38" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P38" t="n">
         <v>424.2958575201044</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>35.25505765581501</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37707,13 +37709,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
         <v>351.0170646165068</v>
@@ -37792,13 +37794,13 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>170.8626916697544</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37868,10 +37870,10 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>424.2958575201043</v>
+        <v>385.2554146752023</v>
       </c>
       <c r="P42" t="n">
         <v>424.2958575201044</v>
@@ -37938,22 +37940,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N43" t="n">
-        <v>424.2958575201044</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O43" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
-        <v>131.8679565343714</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>51.60081105582553</v>
       </c>
       <c r="J44" t="n">
-        <v>181.0765084323517</v>
+        <v>114.5081400587199</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>171.6180187748791</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>212.9073277935339</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>236.9004250205244</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>240.7337215691252</v>
       </c>
       <c r="O44" t="n">
-        <v>2.89759419967416</v>
+        <v>227.318026873075</v>
       </c>
       <c r="P44" t="n">
-        <v>181.0765084323517</v>
+        <v>194.0106767477459</v>
       </c>
       <c r="Q44" t="n">
-        <v>181.0765084323517</v>
+        <v>145.6939384646735</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>84.74907675180566</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>51.18057382505155</v>
       </c>
       <c r="J45" t="n">
-        <v>181.0765084323517</v>
+        <v>395.4481201532388</v>
       </c>
       <c r="K45" t="n">
-        <v>181.0765084323517</v>
+        <v>116.565113543484</v>
       </c>
       <c r="L45" t="n">
-        <v>29.07700177367349</v>
+        <v>156.7361801876899</v>
       </c>
       <c r="M45" t="n">
-        <v>181.0765084323517</v>
+        <v>182.9037295110159</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>187.7446469841394</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>171.7496730964874</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>137.8442543785807</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>92.14523357605344</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3563415094342</v>
+        <v>163.1751954986662</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,31 +38174,31 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>3.868594087274712</v>
+        <v>42.78665376469154</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>347.8454081721616</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>387.1919801412829</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N46" t="n">
-        <v>181.0765084323517</v>
+        <v>92.60997078835703</v>
       </c>
       <c r="O46" t="n">
-        <v>181.0765084323517</v>
+        <v>85.54029738117833</v>
       </c>
       <c r="P46" t="n">
-        <v>181.0765084323517</v>
+        <v>73.19450195261106</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821538</v>
+        <v>220.5677709677748</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>6.007722421746777</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_7_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_7_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5778.688947459594</v>
+        <v>-12418.63450376414</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>26340120.55375611</v>
+        <v>25841374.97493688</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11076420.90340768</v>
+        <v>11090349.17873481</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4163722.522087304</v>
+        <v>4179620.529265305</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,13 +670,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>57.32582788869902</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>385.6469269706821</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>116.5823467551835</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>93.98011662599971</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -898,13 +898,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>291.6115384509264</v>
       </c>
       <c r="D5" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>300.5437357054171</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>129.4782830801035</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1119,7 +1119,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>20.04146492631012</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>137.9303368454758</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1147,10 +1147,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>185.2071699786023</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1229,7 +1229,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H9" t="n">
-        <v>41.31829566194965</v>
+        <v>41.31829566194966</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>59.27046216150327</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
@@ -1311,7 +1311,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>14.45526395645764</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1375,19 +1375,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="D11" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>373.7197913037078</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1429,13 +1429,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>162.1308339807063</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H12" t="n">
-        <v>41.31829566194966</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1530,25 +1530,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>25.15196019135021</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>42.59920215195948</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>376.6861762689733</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>120.3716221032459</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,10 +1666,10 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1770,19 +1770,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>40.77895054455875</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>182.2772576904497</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1846,10 +1846,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>403.1572050940909</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>261.0832263339346</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
@@ -2016,13 +2016,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>148.3766424751937</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>73.0750447229214</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>373.7197913037078</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>263.0555370307725</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -2241,10 +2241,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2253,10 +2253,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>65.14560100348309</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>58.28357242464475</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -2320,25 +2320,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>46.26926615534656</v>
       </c>
       <c r="X23" t="n">
-        <v>373.7197913037078</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>106.0626366504663</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>148.3766424751937</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -2569,13 +2569,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V26" t="n">
-        <v>29.26230950814955</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>398.440637320484</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>404.2032624633431</v>
@@ -2733,7 +2733,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>7.646576123170202</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>209.5867542297959</v>
       </c>
     </row>
     <row r="29">
@@ -2791,19 +2791,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="D29" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>293.1637189657519</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T29" t="n">
-        <v>117.0897116475545</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2952,22 +2952,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>159.5828560759984</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>14.41579817002531</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
@@ -3031,22 +3031,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H32" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,19 +3082,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T32" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>61.18636102668871</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>43.25884065436964</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3189,22 +3189,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>159.1000412385906</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>72.21462998383448</v>
       </c>
       <c r="Y34" t="n">
         <v>225.1454739790328</v>
@@ -3268,10 +3268,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>346.595350309863</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3280,13 +3280,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,16 +3319,16 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>347.3637975681711</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>14.41579817002531</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>167.2727484050685</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>46.26926615534656</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>203.1869771812474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3666,19 +3666,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>89.5096634947845</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,22 +3711,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>93.41827306551629</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3757,10 +3757,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3802,13 +3802,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>19.76988317734234</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>307.8553974494725</v>
       </c>
     </row>
     <row r="42">
@@ -3912,13 +3912,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>152.9189507365546</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>163.293878347428</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3988,16 +3988,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>49.82206968889089</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>46.26926615534656</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4070,10 +4070,10 @@
         <v>82.55</v>
       </c>
       <c r="G45" t="n">
-        <v>83.80937540686895</v>
+        <v>84.53123883647795</v>
       </c>
       <c r="H45" t="n">
-        <v>34.34661464441015</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,13 +4106,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>49.41258657788106</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T45" t="n">
-        <v>125.9672410405524</v>
+        <v>128.8768572327044</v>
       </c>
       <c r="U45" t="n">
-        <v>174.5256905149255</v>
+        <v>174.5731815300314</v>
       </c>
       <c r="V45" t="n">
         <v>197.1263427586206</v>
@@ -4137,22 +4137,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>260.2915433175625</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>93.41827306551629</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>33.94366860160834</v>
+        <v>782.3765311903798</v>
       </c>
       <c r="C2" t="n">
-        <v>33.94366860160834</v>
+        <v>782.3765311903798</v>
       </c>
       <c r="D2" t="n">
-        <v>33.94366860160834</v>
+        <v>782.3765311903798</v>
       </c>
       <c r="E2" t="n">
-        <v>33.94366860160834</v>
+        <v>782.3765311903798</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H2" t="n">
         <v>33.94366860160834</v>
@@ -4333,22 +4333,22 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="Q2" t="n">
         <v>1528.02936532736</v>
@@ -4366,16 +4366,16 @@
         <v>1613.531556264254</v>
       </c>
       <c r="V2" t="n">
-        <v>1250.914606198081</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="W2" t="n">
-        <v>861.3722557226442</v>
+        <v>1208.676101675288</v>
       </c>
       <c r="X2" t="n">
-        <v>442.2297923019549</v>
+        <v>1208.676101675288</v>
       </c>
       <c r="Y2" t="n">
-        <v>33.94366860160834</v>
+        <v>1208.676101675288</v>
       </c>
     </row>
     <row r="3">
@@ -4409,25 +4409,25 @@
         <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>319.8519551513677</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>319.8519551513677</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
         <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
-        <v>1580.010651986078</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
         <v>1580.010651986078</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>892.3220711155946</v>
+        <v>206.5053801183834</v>
       </c>
       <c r="C4" t="n">
-        <v>892.3220711155946</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D4" t="n">
-        <v>774.5621248982375</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L4" t="n">
-        <v>437.4083829648294</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M4" t="n">
-        <v>857.4612819097326</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N4" t="n">
-        <v>1277.514180854636</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1451.303983658873</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U4" t="n">
-        <v>1451.303983658873</v>
+        <v>1238.091239336891</v>
       </c>
       <c r="V4" t="n">
-        <v>1164.348475529303</v>
+        <v>1143.161828603558</v>
       </c>
       <c r="W4" t="n">
-        <v>892.3220711155946</v>
+        <v>871.1354241898498</v>
       </c>
       <c r="X4" t="n">
-        <v>892.3220711155946</v>
+        <v>625.7436695232623</v>
       </c>
       <c r="Y4" t="n">
-        <v>892.3220711155946</v>
+        <v>398.3239988373705</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>890.8095618279922</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="C5" t="n">
-        <v>890.8095618279922</v>
+        <v>1318.974446717864</v>
       </c>
       <c r="D5" t="n">
-        <v>462.2278875652606</v>
+        <v>890.3927724551322</v>
       </c>
       <c r="E5" t="n">
-        <v>462.2278875652606</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F5" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I5" t="n">
         <v>33.94366860160834</v>
@@ -4570,19 +4570,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L5" t="n">
-        <v>1107.976466382457</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M5" t="n">
-        <v>1107.976466382457</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N5" t="n">
-        <v>1107.976466382457</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O5" t="n">
-        <v>1107.976466382457</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P5" t="n">
         <v>1107.976466382457</v>
@@ -4606,13 +4606,13 @@
         <v>1613.531556264254</v>
       </c>
       <c r="W5" t="n">
-        <v>1309.952025248681</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="X5" t="n">
-        <v>890.8095618279922</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="Y5" t="n">
-        <v>890.8095618279922</v>
+        <v>1613.531556264254</v>
       </c>
     </row>
     <row r="6">
@@ -4625,7 +4625,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D6" t="n">
         <v>338.5686635760967</v>
@@ -4634,10 +4634,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H6" t="n">
         <v>33.94366860160834</v>
@@ -4649,19 +4649,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P6" t="n">
         <v>1159.957753041174</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>646.930316449007</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="C7" t="n">
-        <v>646.930316449007</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="D7" t="n">
-        <v>646.930316449007</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="E7" t="n">
-        <v>516.14417192365</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F7" t="n">
-        <v>339.4371178854062</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H7" t="n">
         <v>33.94366860160834</v>
@@ -4725,52 +4725,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L7" t="n">
-        <v>452.1535503695694</v>
+        <v>761.43086230084</v>
       </c>
       <c r="M7" t="n">
-        <v>872.2064493144727</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N7" t="n">
-        <v>1292.259348259376</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q7" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T7" t="n">
-        <v>1451.303983658873</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U7" t="n">
-        <v>1451.303983658873</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="V7" t="n">
-        <v>1164.348475529303</v>
+        <v>864.4976534877803</v>
       </c>
       <c r="W7" t="n">
-        <v>892.3220711155946</v>
+        <v>592.4712490740719</v>
       </c>
       <c r="X7" t="n">
-        <v>646.930316449007</v>
+        <v>572.2273451081021</v>
       </c>
       <c r="Y7" t="n">
-        <v>646.930316449007</v>
+        <v>572.2273451081021</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>510.5685620045878</v>
+        <v>891.5238064999317</v>
       </c>
       <c r="C8" t="n">
-        <v>510.5685620045878</v>
+        <v>462.9421322372</v>
       </c>
       <c r="D8" t="n">
-        <v>510.5685620045878</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="E8" t="n">
-        <v>510.5685620045878</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="F8" t="n">
-        <v>510.5685620045878</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G8" t="n">
-        <v>323.4906125312521</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H8" t="n">
         <v>34.36045797446834</v>
@@ -4831,25 +4831,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="V8" t="n">
-        <v>1334.566480014244</v>
+        <v>1030.847379071119</v>
       </c>
       <c r="W8" t="n">
-        <v>929.7110254252771</v>
+        <v>1030.847379071119</v>
       </c>
       <c r="X8" t="n">
-        <v>510.5685620045878</v>
+        <v>1030.847379071119</v>
       </c>
       <c r="Y8" t="n">
-        <v>510.5685620045878</v>
+        <v>1030.847379071119</v>
       </c>
     </row>
     <row r="9">
@@ -4874,7 +4874,7 @@
         <v>161.064410519212</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539589</v>
       </c>
       <c r="H9" t="n">
         <v>33.94366860160834</v>
@@ -4886,19 +4886,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K9" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L9" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M9" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N9" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O9" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P9" t="n">
         <v>1159.957753041174</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>685.9021756729128</v>
+        <v>1113.00182921349</v>
       </c>
       <c r="C10" t="n">
-        <v>685.9021756729128</v>
+        <v>940.4401176967148</v>
       </c>
       <c r="D10" t="n">
-        <v>685.9021756729128</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="E10" t="n">
-        <v>516.14417192365</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F10" t="n">
-        <v>339.4371178854062</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G10" t="n">
-        <v>173.8458429112338</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I10" t="n">
         <v>33.94366860160834</v>
@@ -4968,13 +4968,13 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L10" t="n">
-        <v>761.43086230084</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M10" t="n">
-        <v>1181.483761245743</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N10" t="n">
-        <v>1181.483761245743</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O10" t="n">
         <v>1181.483761245743</v>
@@ -4995,19 +4995,19 @@
         <v>1451.303983658873</v>
       </c>
       <c r="U10" t="n">
-        <v>1451.303983658873</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V10" t="n">
-        <v>1164.348475529303</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="W10" t="n">
-        <v>892.3220711155946</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="X10" t="n">
-        <v>877.7207943919</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="Y10" t="n">
-        <v>877.7207943919</v>
+        <v>1172.870982911978</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1697.183430080417</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="C11" t="n">
-        <v>1268.601755817686</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="D11" t="n">
-        <v>840.020081554954</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="E11" t="n">
-        <v>411.4384072922223</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="F11" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G11" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H11" t="n">
         <v>33.94366860160834</v>
@@ -5077,16 +5077,16 @@
         <v>1697.183430080417</v>
       </c>
       <c r="V11" t="n">
-        <v>1697.183430080417</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="W11" t="n">
-        <v>1697.183430080417</v>
+        <v>1170.797960841813</v>
       </c>
       <c r="X11" t="n">
-        <v>1697.183430080417</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="Y11" t="n">
-        <v>1697.183430080417</v>
+        <v>751.6554974211238</v>
       </c>
     </row>
     <row r="12">
@@ -5111,7 +5111,7 @@
         <v>161.064410519212</v>
       </c>
       <c r="G12" t="n">
-        <v>75.67932078539589</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H12" t="n">
         <v>33.94366860160834</v>
@@ -5126,19 +5126,19 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L12" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M12" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N12" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O12" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P12" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q12" t="n">
         <v>1580.010651986078</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>972.5298568103158</v>
+        <v>76.97316572479974</v>
       </c>
       <c r="C13" t="n">
-        <v>799.9681452935407</v>
+        <v>76.97316572479974</v>
       </c>
       <c r="D13" t="n">
-        <v>774.5621248982375</v>
+        <v>76.97316572479974</v>
       </c>
       <c r="E13" t="n">
-        <v>604.8041211489747</v>
+        <v>76.97316572479974</v>
       </c>
       <c r="F13" t="n">
-        <v>428.0970671107308</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G13" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H13" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I13" t="n">
         <v>33.94366860160834</v>
@@ -5205,13 +5205,13 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L13" t="n">
-        <v>395.2818083374338</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M13" t="n">
-        <v>761.43086230084</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N13" t="n">
-        <v>1181.483761245743</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O13" t="n">
         <v>1181.483761245743</v>
@@ -5226,25 +5226,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S13" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T13" t="n">
-        <v>1451.303983658873</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U13" t="n">
-        <v>1451.303983658873</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="V13" t="n">
-        <v>1164.348475529303</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="W13" t="n">
-        <v>1164.348475529303</v>
+        <v>741.6032097962661</v>
       </c>
       <c r="X13" t="n">
-        <v>1164.348475529303</v>
+        <v>496.2114551296786</v>
       </c>
       <c r="Y13" t="n">
-        <v>1164.348475529303</v>
+        <v>268.7917844437869</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>846.059151609114</v>
+        <v>1270.883859595509</v>
       </c>
       <c r="C14" t="n">
-        <v>846.059151609114</v>
+        <v>842.3021853327778</v>
       </c>
       <c r="D14" t="n">
-        <v>846.059151609114</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="E14" t="n">
-        <v>846.059151609114</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F14" t="n">
-        <v>724.4716545351282</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G14" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H14" t="n">
         <v>33.94366860160834</v>
@@ -5284,13 +5284,13 @@
         <v>874.0494664914149</v>
       </c>
       <c r="L14" t="n">
-        <v>874.0494664914149</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="M14" t="n">
-        <v>874.0494664914149</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="N14" t="n">
-        <v>874.0494664914149</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="O14" t="n">
         <v>1107.976466382457</v>
@@ -5305,25 +5305,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S14" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T14" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U14" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V14" t="n">
-        <v>1250.914606198081</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W14" t="n">
-        <v>846.059151609114</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X14" t="n">
-        <v>846.059151609114</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y14" t="n">
-        <v>846.059151609114</v>
+        <v>1697.183430080417</v>
       </c>
     </row>
     <row r="15">
@@ -5363,16 +5363,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L15" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M15" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N15" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O15" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P15" t="n">
         <v>1159.957753041174</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>688.7058834404251</v>
+        <v>760.0392898402852</v>
       </c>
       <c r="C16" t="n">
-        <v>516.14417192365</v>
+        <v>587.4775783235101</v>
       </c>
       <c r="D16" t="n">
-        <v>516.14417192365</v>
+        <v>421.5995855250328</v>
       </c>
       <c r="E16" t="n">
-        <v>516.14417192365</v>
+        <v>251.8415817757701</v>
       </c>
       <c r="F16" t="n">
-        <v>339.4371178854062</v>
+        <v>75.13452773752627</v>
       </c>
       <c r="G16" t="n">
-        <v>173.8458429112338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H16" t="n">
         <v>33.94366860160834</v>
@@ -5442,13 +5442,13 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L16" t="n">
-        <v>813.4916901053949</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="M16" t="n">
-        <v>1181.483761245743</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="N16" t="n">
-        <v>1181.483761245743</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O16" t="n">
         <v>1181.483761245743</v>
@@ -5463,25 +5463,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S16" t="n">
-        <v>1537.942061378414</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T16" t="n">
-        <v>1292.062614956869</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U16" t="n">
-        <v>1292.062614956869</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="V16" t="n">
-        <v>1292.062614956869</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="W16" t="n">
-        <v>1107.944172845304</v>
+        <v>1179.277579245164</v>
       </c>
       <c r="X16" t="n">
-        <v>1107.944172845304</v>
+        <v>1179.277579245164</v>
       </c>
       <c r="Y16" t="n">
-        <v>880.5245021594121</v>
+        <v>951.8579085592723</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>869.7548429593813</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="C17" t="n">
-        <v>462.52534286434</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="D17" t="n">
-        <v>33.94366860160834</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="E17" t="n">
-        <v>33.94366860160834</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="F17" t="n">
-        <v>33.94366860160834</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="G17" t="n">
-        <v>33.94366860160834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H17" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I17" t="n">
         <v>33.94366860160834</v>
@@ -5518,49 +5518,49 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K17" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L17" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M17" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N17" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O17" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P17" t="n">
-        <v>1277.130531135514</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q17" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R17" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S17" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T17" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U17" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="V17" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="W17" t="n">
-        <v>1697.183430080417</v>
+        <v>988.6088745483262</v>
       </c>
       <c r="X17" t="n">
-        <v>1278.040966659728</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="Y17" t="n">
-        <v>869.7548429593813</v>
+        <v>724.8884439079882</v>
       </c>
     </row>
     <row r="18">
@@ -5600,19 +5600,19 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L18" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M18" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N18" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O18" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P18" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q18" t="n">
         <v>1580.010651986078</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>947.4105542393174</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="C19" t="n">
-        <v>774.8488427225424</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="D19" t="n">
-        <v>608.9708499240651</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="E19" t="n">
-        <v>439.2128461748023</v>
+        <v>516.14417192365</v>
       </c>
       <c r="F19" t="n">
-        <v>262.5057921365585</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G19" t="n">
-        <v>262.5057921365585</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H19" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I19" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J19" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K19" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L19" t="n">
-        <v>452.1535503695694</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M19" t="n">
-        <v>857.4612819097326</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N19" t="n">
-        <v>1277.514180854636</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O19" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P19" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q19" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R19" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S19" t="n">
-        <v>1516.524240083786</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T19" t="n">
-        <v>1366.648843644196</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U19" t="n">
-        <v>1366.648843644196</v>
+        <v>1218.24943846907</v>
       </c>
       <c r="V19" t="n">
-        <v>1366.648843644196</v>
+        <v>931.2939303395003</v>
       </c>
       <c r="W19" t="n">
-        <v>1366.648843644196</v>
+        <v>931.2939303395003</v>
       </c>
       <c r="X19" t="n">
-        <v>1366.648843644196</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="Y19" t="n">
-        <v>1139.229172958305</v>
+        <v>685.9021756729128</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1697.183430080417</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C20" t="n">
-        <v>1268.601755817686</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D20" t="n">
-        <v>840.020081554954</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E20" t="n">
-        <v>411.4384072922223</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F20" t="n">
         <v>33.94366860160834</v>
@@ -5752,25 +5752,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J20" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K20" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L20" t="n">
         <v>453.9965675465116</v>
       </c>
       <c r="M20" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N20" t="n">
-        <v>1294.102365436318</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O20" t="n">
-        <v>1528.02936532736</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P20" t="n">
-        <v>1528.02936532736</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q20" t="n">
         <v>1528.02936532736</v>
@@ -5779,25 +5779,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S20" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T20" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U20" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V20" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="W20" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="X20" t="n">
-        <v>1697.183430080417</v>
+        <v>868.5293627868627</v>
       </c>
       <c r="Y20" t="n">
-        <v>1697.183430080417</v>
+        <v>460.2432390865162</v>
       </c>
     </row>
     <row r="21">
@@ -5834,22 +5834,22 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K21" t="n">
-        <v>804.6185656731816</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="L21" t="n">
-        <v>804.6185656731816</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="M21" t="n">
-        <v>804.6185656731816</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="N21" t="n">
-        <v>804.6185656731816</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="O21" t="n">
-        <v>804.6185656731816</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P21" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q21" t="n">
         <v>1580.010651986078</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>774.5621248982375</v>
+        <v>807.508379929692</v>
       </c>
       <c r="C22" t="n">
-        <v>774.5621248982375</v>
+        <v>634.9466684129169</v>
       </c>
       <c r="D22" t="n">
-        <v>774.5621248982375</v>
+        <v>469.0686756144395</v>
       </c>
       <c r="E22" t="n">
-        <v>604.8041211489747</v>
+        <v>299.3106718651768</v>
       </c>
       <c r="F22" t="n">
-        <v>428.0970671107308</v>
+        <v>122.603617826933</v>
       </c>
       <c r="G22" t="n">
-        <v>262.5057921365585</v>
+        <v>122.603617826933</v>
       </c>
       <c r="H22" t="n">
         <v>122.603617826933</v>
@@ -5913,49 +5913,49 @@
         <v>120.5233537662982</v>
       </c>
       <c r="K22" t="n">
-        <v>120.5233537662982</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L22" t="n">
-        <v>437.4083829648294</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="M22" t="n">
-        <v>857.4612819097326</v>
+        <v>815.3347072823371</v>
       </c>
       <c r="N22" t="n">
-        <v>1277.514180854636</v>
+        <v>815.3347072823371</v>
       </c>
       <c r="O22" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P22" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q22" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R22" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S22" t="n">
-        <v>1516.524240083786</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T22" t="n">
-        <v>1270.644793662241</v>
+        <v>1472.138424001158</v>
       </c>
       <c r="U22" t="n">
-        <v>1270.644793662241</v>
+        <v>1472.138424001158</v>
       </c>
       <c r="V22" t="n">
-        <v>1211.772498283812</v>
+        <v>1472.138424001158</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.772498283812</v>
+        <v>1472.138424001158</v>
       </c>
       <c r="X22" t="n">
-        <v>966.3807436172247</v>
+        <v>1226.746669334571</v>
       </c>
       <c r="Y22" t="n">
-        <v>966.3807436172247</v>
+        <v>999.3269986486791</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1319.688691389803</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="C23" t="n">
-        <v>891.1070171270717</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="D23" t="n">
-        <v>462.52534286434</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="E23" t="n">
-        <v>33.94366860160834</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="F23" t="n">
-        <v>33.94366860160834</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="G23" t="n">
-        <v>33.94366860160834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H23" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I23" t="n">
         <v>33.94366860160834</v>
@@ -5992,49 +5992,49 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K23" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L23" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M23" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N23" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O23" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P23" t="n">
-        <v>1277.130531135514</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q23" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R23" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S23" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T23" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U23" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V23" t="n">
-        <v>1697.183430080417</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="W23" t="n">
-        <v>1697.183430080417</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="X23" t="n">
-        <v>1319.688691389803</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="Y23" t="n">
-        <v>1319.688691389803</v>
+        <v>724.8884439079882</v>
       </c>
     </row>
     <row r="24">
@@ -6047,7 +6047,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C24" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D24" t="n">
         <v>338.5686635760967</v>
@@ -6056,10 +6056,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F24" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G24" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H24" t="n">
         <v>33.94366860160834</v>
@@ -6074,16 +6074,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L24" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M24" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N24" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O24" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P24" t="n">
         <v>1159.957753041174</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>947.4105542393174</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C25" t="n">
-        <v>774.8488427225424</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D25" t="n">
-        <v>608.9708499240651</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E25" t="n">
-        <v>439.2128461748023</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F25" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G25" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H25" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I25" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J25" t="n">
-        <v>68.8461756808652</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K25" t="n">
-        <v>343.6046302520008</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L25" t="n">
-        <v>761.8145120199619</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M25" t="n">
-        <v>761.8145120199619</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N25" t="n">
-        <v>761.8145120199619</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O25" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P25" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q25" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R25" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S25" t="n">
-        <v>1516.524240083786</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T25" t="n">
-        <v>1516.524240083786</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U25" t="n">
-        <v>1516.524240083786</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V25" t="n">
-        <v>1516.524240083786</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W25" t="n">
-        <v>1366.648843644196</v>
+        <v>613.8890703687</v>
       </c>
       <c r="X25" t="n">
-        <v>1366.648843644196</v>
+        <v>368.4973157021125</v>
       </c>
       <c r="Y25" t="n">
-        <v>1139.229172958305</v>
+        <v>141.0776450162207</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>435.3414999783445</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="C26" t="n">
-        <v>435.3414999783445</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="D26" t="n">
-        <v>435.3414999783445</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="E26" t="n">
-        <v>435.3414999783445</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="F26" t="n">
-        <v>435.3414999783445</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="G26" t="n">
-        <v>33.94366860160834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H26" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I26" t="n">
         <v>33.94366860160834</v>
@@ -6229,16 +6229,16 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K26" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L26" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M26" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N26" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O26" t="n">
         <v>687.9235674375537</v>
@@ -6253,25 +6253,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S26" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T26" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U26" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V26" t="n">
-        <v>1667.625541688347</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="W26" t="n">
-        <v>1262.77008709938</v>
+        <v>731.7767362315986</v>
       </c>
       <c r="X26" t="n">
-        <v>843.6276236786911</v>
+        <v>731.7767362315986</v>
       </c>
       <c r="Y26" t="n">
-        <v>435.3414999783445</v>
+        <v>323.4906125312521</v>
       </c>
     </row>
     <row r="27">
@@ -6284,7 +6284,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C27" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D27" t="n">
         <v>338.5686635760967</v>
@@ -6293,10 +6293,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F27" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G27" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H27" t="n">
         <v>33.94366860160834</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1032.065694253994</v>
+        <v>1113.00182921349</v>
       </c>
       <c r="C28" t="n">
-        <v>859.5039827372185</v>
+        <v>940.4401176967148</v>
       </c>
       <c r="D28" t="n">
-        <v>693.6259899387412</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="E28" t="n">
-        <v>523.8679861894784</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F28" t="n">
-        <v>347.1609321512346</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G28" t="n">
-        <v>181.5696571770623</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H28" t="n">
-        <v>41.66748286743683</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I28" t="n">
         <v>33.94366860160834</v>
@@ -6387,19 +6387,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K28" t="n">
-        <v>33.94366860160834</v>
+        <v>91.74450617142992</v>
       </c>
       <c r="L28" t="n">
-        <v>452.1535503695694</v>
+        <v>509.954387939391</v>
       </c>
       <c r="M28" t="n">
-        <v>857.4612819097326</v>
+        <v>509.954387939391</v>
       </c>
       <c r="N28" t="n">
-        <v>1277.514180854636</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="O28" t="n">
-        <v>1697.183430080417</v>
+        <v>1349.676536110076</v>
       </c>
       <c r="P28" t="n">
         <v>1697.183430080417</v>
@@ -6408,28 +6408,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R28" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S28" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T28" t="n">
-        <v>1451.303983658873</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U28" t="n">
-        <v>1451.303983658873</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="V28" t="n">
-        <v>1451.303983658873</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="W28" t="n">
-        <v>1451.303983658873</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="X28" t="n">
-        <v>1451.303983658873</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="Y28" t="n">
-        <v>1223.884312972981</v>
+        <v>1304.820447932477</v>
       </c>
     </row>
     <row r="29">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1319.688691389803</v>
+        <v>1187.231985779346</v>
       </c>
       <c r="C29" t="n">
-        <v>891.1070171270717</v>
+        <v>758.6503115166147</v>
       </c>
       <c r="D29" t="n">
-        <v>462.52534286434</v>
+        <v>758.6503115166147</v>
       </c>
       <c r="E29" t="n">
-        <v>33.94366860160834</v>
+        <v>330.068637253883</v>
       </c>
       <c r="F29" t="n">
         <v>33.94366860160834</v>
@@ -6466,19 +6466,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K29" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L29" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="M29" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="N29" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="O29" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P29" t="n">
         <v>1107.976466382457</v>
@@ -6490,25 +6490,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S29" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T29" t="n">
-        <v>1578.910994072786</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U29" t="n">
-        <v>1319.688691389803</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V29" t="n">
-        <v>1319.688691389803</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="W29" t="n">
-        <v>1319.688691389803</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="X29" t="n">
-        <v>1319.688691389803</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="Y29" t="n">
-        <v>1319.688691389803</v>
+        <v>1613.531556264254</v>
       </c>
     </row>
     <row r="30">
@@ -6521,7 +6521,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C30" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D30" t="n">
         <v>338.5686635760967</v>
@@ -6530,10 +6530,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F30" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G30" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H30" t="n">
         <v>33.94366860160834</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>195.1384727187784</v>
+        <v>858.7506050139928</v>
       </c>
       <c r="C31" t="n">
-        <v>195.1384727187784</v>
+        <v>686.1888934972177</v>
       </c>
       <c r="D31" t="n">
-        <v>195.1384727187784</v>
+        <v>520.3109006987404</v>
       </c>
       <c r="E31" t="n">
-        <v>195.1384727187784</v>
+        <v>350.5528969494776</v>
       </c>
       <c r="F31" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="G31" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H31" t="n">
         <v>33.94366860160834</v>
@@ -6621,25 +6621,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J31" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K31" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L31" t="n">
-        <v>437.4083829648294</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M31" t="n">
-        <v>857.4612819097326</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N31" t="n">
-        <v>1277.514180854636</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O31" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P31" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q31" t="n">
         <v>1697.183430080417</v>
@@ -6648,25 +6648,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S31" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T31" t="n">
-        <v>1697.183430080417</v>
+        <v>1523.380649085459</v>
       </c>
       <c r="U31" t="n">
-        <v>1418.750429333523</v>
+        <v>1523.380649085459</v>
       </c>
       <c r="V31" t="n">
-        <v>1131.794921203953</v>
+        <v>1523.380649085459</v>
       </c>
       <c r="W31" t="n">
-        <v>859.7685167902448</v>
+        <v>1523.380649085459</v>
       </c>
       <c r="X31" t="n">
-        <v>614.3767621236573</v>
+        <v>1277.988894418872</v>
       </c>
       <c r="Y31" t="n">
-        <v>386.9570914377655</v>
+        <v>1050.56922373298</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>323.0738231583921</v>
+        <v>1292.504848503808</v>
       </c>
       <c r="C32" t="n">
-        <v>323.0738231583921</v>
+        <v>863.9231742410761</v>
       </c>
       <c r="D32" t="n">
-        <v>323.0738231583921</v>
+        <v>863.9231742410761</v>
       </c>
       <c r="E32" t="n">
-        <v>323.0738231583921</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="F32" t="n">
-        <v>323.0738231583921</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="G32" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H32" t="n">
         <v>33.94366860160834</v>
@@ -6700,13 +6700,13 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J32" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K32" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L32" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M32" t="n">
         <v>453.9965675465116</v>
@@ -6730,22 +6730,22 @@
         <v>1613.531556264254</v>
       </c>
       <c r="T32" t="n">
-        <v>1393.464329137293</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U32" t="n">
-        <v>1134.24202645431</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="V32" t="n">
-        <v>771.6250763881362</v>
+        <v>1292.504848503808</v>
       </c>
       <c r="W32" t="n">
-        <v>366.7696217991695</v>
+        <v>1292.504848503808</v>
       </c>
       <c r="X32" t="n">
-        <v>323.0738231583921</v>
+        <v>1292.504848503808</v>
       </c>
       <c r="Y32" t="n">
-        <v>323.0738231583921</v>
+        <v>1292.504848503808</v>
       </c>
     </row>
     <row r="33">
@@ -6785,16 +6785,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L33" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M33" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N33" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O33" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P33" t="n">
         <v>1159.957753041174</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>194.6507809638211</v>
+        <v>1024.341879988165</v>
       </c>
       <c r="C34" t="n">
-        <v>194.6507809638211</v>
+        <v>851.7801684713901</v>
       </c>
       <c r="D34" t="n">
-        <v>194.6507809638211</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="E34" t="n">
-        <v>194.6507809638211</v>
+        <v>516.14417192365</v>
       </c>
       <c r="F34" t="n">
-        <v>33.94366860160834</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G34" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H34" t="n">
         <v>33.94366860160834</v>
@@ -6858,52 +6858,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J34" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K34" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L34" t="n">
-        <v>813.4916901053949</v>
+        <v>89.90148899448771</v>
       </c>
       <c r="M34" t="n">
-        <v>1233.544589050298</v>
+        <v>509.954387939391</v>
       </c>
       <c r="N34" t="n">
-        <v>1528.990655216085</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="O34" t="n">
-        <v>1528.990655216085</v>
+        <v>1349.676536110076</v>
       </c>
       <c r="P34" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q34" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R34" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S34" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T34" t="n">
-        <v>1451.303983658873</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U34" t="n">
-        <v>1172.870982911978</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="V34" t="n">
-        <v>885.9154747824084</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="W34" t="n">
-        <v>613.8890703687</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="X34" t="n">
-        <v>613.8890703687</v>
+        <v>1443.580169393044</v>
       </c>
       <c r="Y34" t="n">
-        <v>386.4693996828083</v>
+        <v>1216.160498707152</v>
       </c>
     </row>
     <row r="35">
@@ -6913,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>724.4716545351282</v>
+        <v>813.0384456815061</v>
       </c>
       <c r="C35" t="n">
-        <v>724.4716545351282</v>
+        <v>384.4567714187745</v>
       </c>
       <c r="D35" t="n">
-        <v>724.4716545351282</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="E35" t="n">
-        <v>724.4716545351282</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="F35" t="n">
-        <v>724.4716545351282</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G35" t="n">
-        <v>323.0738231583921</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H35" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I35" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J35" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K35" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L35" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M35" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N35" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="O35" t="n">
         <v>687.9235674375537</v>
       </c>
-      <c r="O35" t="n">
+      <c r="P35" t="n">
         <v>1107.976466382457</v>
-      </c>
-      <c r="P35" t="n">
-        <v>1528.02936532736</v>
       </c>
       <c r="Q35" t="n">
         <v>1528.02936532736</v>
@@ -6967,22 +6967,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T35" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U35" t="n">
-        <v>1437.961127397434</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="V35" t="n">
-        <v>1075.344177331261</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="W35" t="n">
-        <v>724.4716545351282</v>
+        <v>813.0384456815061</v>
       </c>
       <c r="X35" t="n">
-        <v>724.4716545351282</v>
+        <v>813.0384456815061</v>
       </c>
       <c r="Y35" t="n">
-        <v>724.4716545351282</v>
+        <v>813.0384456815061</v>
       </c>
     </row>
     <row r="36">
@@ -6995,7 +6995,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C36" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D36" t="n">
         <v>338.5686635760967</v>
@@ -7004,10 +7004,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F36" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G36" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H36" t="n">
         <v>33.94366860160834</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>199.5349435757807</v>
+        <v>858.7506050139928</v>
       </c>
       <c r="C37" t="n">
-        <v>199.5349435757807</v>
+        <v>686.1888934972177</v>
       </c>
       <c r="D37" t="n">
-        <v>199.5349435757807</v>
+        <v>520.3109006987404</v>
       </c>
       <c r="E37" t="n">
-        <v>199.5349435757807</v>
+        <v>350.5528969494776</v>
       </c>
       <c r="F37" t="n">
-        <v>199.5349435757807</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="G37" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H37" t="n">
         <v>33.94366860160834</v>
@@ -7095,25 +7095,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J37" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K37" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L37" t="n">
-        <v>437.4083829648294</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M37" t="n">
-        <v>857.4612819097326</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N37" t="n">
-        <v>1277.514180854636</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O37" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P37" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q37" t="n">
         <v>1697.183430080417</v>
@@ -7122,25 +7122,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S37" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T37" t="n">
-        <v>1451.303983658873</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="U37" t="n">
-        <v>1172.870982911978</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="V37" t="n">
-        <v>885.9154747824084</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="W37" t="n">
-        <v>613.8890703687</v>
+        <v>1523.380649085459</v>
       </c>
       <c r="X37" t="n">
-        <v>368.4973157021125</v>
+        <v>1277.988894418872</v>
       </c>
       <c r="Y37" t="n">
-        <v>199.5349435757807</v>
+        <v>1050.56922373298</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>724.4716545351282</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="C38" t="n">
-        <v>724.4716545351282</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="D38" t="n">
-        <v>724.4716545351282</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="E38" t="n">
-        <v>724.4716545351282</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="F38" t="n">
-        <v>724.4716545351282</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="G38" t="n">
-        <v>323.0738231583921</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H38" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I38" t="n">
         <v>33.94366860160834</v>
@@ -7177,19 +7177,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K38" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L38" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="M38" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="N38" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="O38" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P38" t="n">
         <v>1107.976466382457</v>
@@ -7201,25 +7201,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S38" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T38" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U38" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V38" t="n">
-        <v>1334.566480014244</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="W38" t="n">
-        <v>929.7110254252771</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="X38" t="n">
-        <v>929.7110254252771</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="Y38" t="n">
-        <v>724.4716545351282</v>
+        <v>724.8884439079882</v>
       </c>
     </row>
     <row r="39">
@@ -7232,7 +7232,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C39" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D39" t="n">
         <v>338.5686635760967</v>
@@ -7241,10 +7241,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F39" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G39" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H39" t="n">
         <v>33.94366860160834</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>466.6771853775295</v>
+        <v>1024.341879988165</v>
       </c>
       <c r="C40" t="n">
-        <v>294.1154738607544</v>
+        <v>851.7801684713901</v>
       </c>
       <c r="D40" t="n">
-        <v>203.7016723508711</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="E40" t="n">
-        <v>33.94366860160834</v>
+        <v>516.14417192365</v>
       </c>
       <c r="F40" t="n">
-        <v>33.94366860160834</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G40" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H40" t="n">
         <v>33.94366860160834</v>
@@ -7332,19 +7332,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J40" t="n">
-        <v>68.8461756808652</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K40" t="n">
-        <v>343.6046302520008</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L40" t="n">
-        <v>761.8145120199619</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="M40" t="n">
-        <v>761.8145120199619</v>
+        <v>815.3347072823371</v>
       </c>
       <c r="N40" t="n">
-        <v>761.8145120199619</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O40" t="n">
         <v>1181.483761245743</v>
@@ -7359,25 +7359,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S40" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T40" t="n">
-        <v>1451.303983658873</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="U40" t="n">
-        <v>1172.870982911978</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="V40" t="n">
-        <v>885.9154747824084</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="W40" t="n">
-        <v>885.9154747824084</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="X40" t="n">
-        <v>885.9154747824084</v>
+        <v>1443.580169393044</v>
       </c>
       <c r="Y40" t="n">
-        <v>658.4958040965166</v>
+        <v>1216.160498707152</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>751.6554974211238</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="C41" t="n">
-        <v>323.0738231583921</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="D41" t="n">
-        <v>323.0738231583921</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="E41" t="n">
-        <v>323.0738231583921</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="F41" t="n">
-        <v>323.0738231583921</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G41" t="n">
-        <v>323.0738231583921</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H41" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I41" t="n">
         <v>33.94366860160834</v>
@@ -7414,22 +7414,22 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K41" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L41" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="M41" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="N41" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="O41" t="n">
+        <v>687.9235674375537</v>
+      </c>
+      <c r="P41" t="n">
         <v>1107.976466382457</v>
-      </c>
-      <c r="M41" t="n">
-        <v>1107.976466382457</v>
-      </c>
-      <c r="N41" t="n">
-        <v>1107.976466382457</v>
-      </c>
-      <c r="O41" t="n">
-        <v>1528.02936532736</v>
-      </c>
-      <c r="P41" t="n">
-        <v>1528.02936532736</v>
       </c>
       <c r="Q41" t="n">
         <v>1528.02936532736</v>
@@ -7450,13 +7450,13 @@
         <v>771.6250763881362</v>
       </c>
       <c r="W41" t="n">
-        <v>751.6554974211238</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="X41" t="n">
-        <v>751.6554974211238</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="Y41" t="n">
-        <v>751.6554974211238</v>
+        <v>460.6600284593761</v>
       </c>
     </row>
     <row r="42">
@@ -7469,7 +7469,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C42" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D42" t="n">
         <v>338.5686635760967</v>
@@ -7478,34 +7478,34 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F42" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G42" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H42" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I42" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J42" t="n">
-        <v>358.5019935678207</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K42" t="n">
-        <v>358.5019935678207</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L42" t="n">
-        <v>358.5019935678207</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M42" t="n">
-        <v>358.5019935678207</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N42" t="n">
-        <v>358.5019935678207</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O42" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P42" t="n">
         <v>1159.957753041174</v>
@@ -7545,49 +7545,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>873.3120173069476</v>
+        <v>1113.00182921349</v>
       </c>
       <c r="C43" t="n">
-        <v>700.7503057901725</v>
+        <v>940.4401176967148</v>
       </c>
       <c r="D43" t="n">
-        <v>534.8723129916953</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="E43" t="n">
-        <v>365.1143092424325</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F43" t="n">
-        <v>188.4072552041887</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G43" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H43" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I43" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J43" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K43" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L43" t="n">
-        <v>452.1535503695694</v>
+        <v>688.8848573262783</v>
       </c>
       <c r="M43" t="n">
-        <v>872.2064493144727</v>
+        <v>1108.937756271182</v>
       </c>
       <c r="N43" t="n">
-        <v>1277.514180854636</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="O43" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="P43" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q43" t="n">
         <v>1697.183430080417</v>
@@ -7596,25 +7596,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S43" t="n">
-        <v>1537.942061378414</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T43" t="n">
-        <v>1537.942061378414</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U43" t="n">
-        <v>1537.942061378414</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V43" t="n">
-        <v>1537.942061378414</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W43" t="n">
-        <v>1537.942061378414</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X43" t="n">
-        <v>1292.550306711827</v>
+        <v>1532.240118618369</v>
       </c>
       <c r="Y43" t="n">
-        <v>1065.130636025935</v>
+        <v>1304.820447932477</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>84.26899151967996</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="C44" t="n">
-        <v>84.26899151967996</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="D44" t="n">
-        <v>84.26899151967996</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="E44" t="n">
-        <v>84.26899151967996</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="F44" t="n">
+        <v>724.8884439079882</v>
+      </c>
+      <c r="G44" t="n">
+        <v>323.4906125312521</v>
+      </c>
+      <c r="H44" t="n">
+        <v>34.36045797446834</v>
+      </c>
+      <c r="I44" t="n">
         <v>33.94366860160834</v>
       </c>
-      <c r="G44" t="n">
-        <v>33.94366860160834</v>
-      </c>
-      <c r="H44" t="n">
-        <v>33.94366860160834</v>
-      </c>
-      <c r="I44" t="n">
-        <v>85.02847154687561</v>
-      </c>
       <c r="J44" t="n">
-        <v>198.3915302050083</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K44" t="n">
-        <v>368.2933687921386</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L44" t="n">
-        <v>579.0716233077371</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="M44" t="n">
-        <v>813.6030440780562</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="N44" t="n">
-        <v>1051.92942843149</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="O44" t="n">
-        <v>1276.974275035835</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P44" t="n">
-        <v>1469.044845016103</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q44" t="n">
-        <v>1613.28184409613</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R44" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S44" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T44" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U44" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V44" t="n">
-        <v>1334.566480014244</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="W44" t="n">
-        <v>929.7110254252771</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="X44" t="n">
-        <v>510.5685620045878</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="Y44" t="n">
-        <v>510.5685620045878</v>
+        <v>724.8884439079882</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>532.3441565755794</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C45" t="n">
-        <v>425.8876954122217</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D45" t="n">
-        <v>330.7974065587749</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E45" t="n">
-        <v>236.6769918857286</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F45" t="n">
-        <v>153.2931535018903</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G45" t="n">
-        <v>68.63721874747718</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H45" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I45" t="n">
-        <v>84.61243668840937</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J45" t="n">
-        <v>476.1060756401158</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K45" t="n">
-        <v>591.5055380481649</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L45" t="n">
-        <v>746.674356433978</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M45" t="n">
-        <v>927.7490486498837</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N45" t="n">
-        <v>1113.616249164182</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O45" t="n">
-        <v>1283.648425529704</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P45" t="n">
-        <v>1420.114237364499</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q45" t="n">
-        <v>1511.338018604792</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R45" t="n">
-        <v>1672.881462148471</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S45" t="n">
-        <v>1622.96975853445</v>
+        <v>1633.7279925288</v>
       </c>
       <c r="T45" t="n">
-        <v>1495.730121119751</v>
+        <v>1503.549348859402</v>
       </c>
       <c r="U45" t="n">
-        <v>1319.441544842048</v>
+        <v>1327.21280185937</v>
       </c>
       <c r="V45" t="n">
-        <v>1120.324026904048</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W45" t="n">
-        <v>935.0012726372418</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X45" t="n">
-        <v>780.1338368761218</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y45" t="n">
-        <v>653.6480576553425</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>210.6507226398521</v>
+        <v>1024.341879988165</v>
       </c>
       <c r="C46" t="n">
-        <v>210.6507226398521</v>
+        <v>851.7801684713901</v>
       </c>
       <c r="D46" t="n">
-        <v>210.6507226398521</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="E46" t="n">
-        <v>210.6507226398521</v>
+        <v>516.14417192365</v>
       </c>
       <c r="F46" t="n">
-        <v>33.94366860160834</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G46" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H46" t="n">
         <v>33.94366860160834</v>
@@ -7806,52 +7806,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J46" t="n">
-        <v>76.30245582865297</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K46" t="n">
-        <v>420.6694099190929</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L46" t="n">
-        <v>803.9894702589629</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M46" t="n">
-        <v>1224.042369203866</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N46" t="n">
-        <v>1315.72624028434</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O46" t="n">
-        <v>1400.411134691706</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P46" t="n">
-        <v>1472.873691624791</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q46" t="n">
-        <v>1691.235784882888</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R46" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S46" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T46" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="U46" t="n">
-        <v>1434.262679254597</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="V46" t="n">
-        <v>1147.307171125027</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="W46" t="n">
-        <v>875.2807667113186</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="X46" t="n">
-        <v>629.8890120447311</v>
+        <v>1443.580169393044</v>
       </c>
       <c r="Y46" t="n">
-        <v>402.4693413588393</v>
+        <v>1216.160498707152</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7993,13 +7993,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8057,13 +8057,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>262.4693064538401</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8072,13 +8072,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="P3" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8136,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8218,22 +8218,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q5" t="n">
         <v>424.2958575201044</v>
@@ -8297,22 +8297,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P6" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L6" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
@@ -8373,28 +8373,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="M7" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>409.0142240616578</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8534,10 +8534,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8546,10 +8546,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>424.2958575201044</v>
@@ -8616,16 +8616,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>369.8475292559658</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
@@ -8774,7 +8774,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>358.9284720888816</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8853,16 +8853,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>369.8475292559658</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P13" t="n">
         <v>351.0170646165068</v>
@@ -8932,7 +8932,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8941,7 +8941,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>424.2958575201044</v>
@@ -9011,7 +9011,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>424.2958575201044</v>
@@ -9090,16 +9090,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
         <v>351.0170646165068</v>
@@ -9166,7 +9166,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K17" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9178,16 +9178,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P17" t="n">
-        <v>407.1525905495951</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q17" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9248,7 +9248,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>358.9284720888816</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>409.401749030468</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N19" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9400,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>236.2898988798406</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697543</v>
@@ -9482,25 +9482,25 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>424.2958575201043</v>
-      </c>
       <c r="Q21" t="n">
-        <v>358.9284720888816</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9561,25 +9561,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>320.0858880793245</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N22" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512944</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9640,7 +9640,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K23" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9652,16 +9652,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P23" t="n">
-        <v>407.1525905495951</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q23" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9722,7 +9722,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>424.2958575201044</v>
@@ -9795,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>35.25505765581501</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O25" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9877,19 +9877,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>424.2958575201044</v>
@@ -10035,22 +10035,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>58.3846844139612</v>
       </c>
       <c r="L28" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>409.401749030468</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O28" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -10114,10 +10114,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10126,10 +10126,10 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>424.2958575201044</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10433,7 +10433,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>424.2958575201044</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>56.52305090189834</v>
       </c>
       <c r="M34" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="N34" t="n">
-        <v>298.4303698644312</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10594,19 +10594,19 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="N35" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="O35" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="P35" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R35" t="n">
         <v>170.8626916697543</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10825,10 +10825,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10837,10 +10837,10 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>424.2958575201044</v>
@@ -10980,22 +10980,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>35.25505765581501</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>351.0170646165068</v>
@@ -11062,25 +11062,25 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K41" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
+      <c r="P41" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R41" t="n">
         <v>170.8626916697543</v>
@@ -11135,16 +11135,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11153,10 +11153,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>385.2554146752023</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>424.2958575201044</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>296.5687363523682</v>
       </c>
       <c r="M43" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="N43" t="n">
-        <v>409.401749030468</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11296,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11317,10 +11317,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,13 +11375,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.2478563935574</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -11454,16 +11454,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>297.2173195179364</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>329.4301932710911</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -11472,7 +11472,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
         <v>169.8916917821538</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>433.7610480884109</v>
@@ -22558,13 +22558,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>366.2629274061853</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -22606,16 +22606,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>15.15997307239491</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -22704,28 +22704,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.63686611530902</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22752,28 +22752,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>190.1058364222741</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22786,13 +22786,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>142.1495096374845</v>
       </c>
       <c r="D5" t="n">
         <v>7.254829457195569</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -22804,7 +22804,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22846,10 +22846,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>100.2631643376599</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -22950,16 +22950,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>38.58214063166665</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -22989,7 +22989,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -22998,7 +22998,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -23007,7 +23007,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>222.8963721936115</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -23020,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>284.1062379345829</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E8" t="n">
         <v>429.4369973932878</v>
@@ -23035,10 +23035,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>212.1766830843664</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23071,10 +23071,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
@@ -23083,10 +23083,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -23178,13 +23178,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>130.629970370294</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -23199,7 +23199,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23235,16 +23235,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>228.482573163464</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -23263,19 +23263,19 @@
         <v>9.465190568306582</v>
       </c>
       <c r="D11" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>49.86896399117649</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -23317,13 +23317,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>238.6760660623707</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>139.0672526791423</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>132.3407813459019</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,25 +23466,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>54.86451070832658</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>303.2171331916384</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -23554,10 +23554,10 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>123.1564116798719</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23703,7 +23703,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>87.02888267912164</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -23734,10 +23734,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>30.60384299432002</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -23746,13 +23746,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -23794,13 +23794,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>153.8678124525478</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>95.04400948213558</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>202.5736260165043</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -23968,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>49.86896399117649</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
         <v>397.3838530629687</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -24034,10 +24034,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>151.8955017557099</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24129,10 +24129,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,10 +24141,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>178.2750509538462</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>225.8023806236291</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24208,25 +24208,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>354.5376338877305</v>
       </c>
       <c r="X23" t="n">
-        <v>41.23124748277456</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
         <v>404.2032624633431</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>83.83779588133098</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>120.9294978943777</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24457,13 +24457,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H26" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>329.7284710573622</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>2.366262722593035</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>80.12677360990121</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -24669,7 +24669,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>15.5587197492369</v>
       </c>
     </row>
     <row r="29">
@@ -24679,19 +24679,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>9.465190568306582</v>
       </c>
       <c r="D29" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
         <v>5.14113987318342</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>130.4250363291324</v>
       </c>
       <c r="G29" t="n">
         <v>397.3838530629687</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>100.7768432081372</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
@@ -24840,22 +24840,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>15.35712742186297</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24888,19 +24888,19 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>229.004853787304</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24919,22 +24919,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D32" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F32" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I32" t="n">
         <v>0.4126214791313976</v>
@@ -24970,19 +24970,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>297.804419538823</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>371.6921981321128</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
         <v>404.2032624633431</v>
@@ -25077,22 +25077,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>15.83994225927069</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>170.7232071360872</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25156,10 +25156,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>84.95533666743688</v>
       </c>
       <c r="E35" t="n">
         <v>429.4369973932878</v>
@@ -25168,13 +25168,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,16 +25207,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>53.44310247490591</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>414.9510387864824</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25362,25 +25362,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>254.8903421995461</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>57.87272557396435</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>354.5376338877305</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>201.0162852820957</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>74.70954937570802</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25599,22 +25599,22 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>149.5195640544054</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -25645,10 +25645,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25690,13 +25690,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>381.0370168657346</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>96.3478650138706</v>
       </c>
     </row>
     <row r="42">
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>11.01641148787604</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -25851,7 +25851,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>79.64395877249362</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -25876,13 +25876,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>373.7666856059934</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>396.0346945768795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>272.4217836655541</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>52.07140607624191</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>211.9606135828359</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.5221469772661</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>354.5376338877305</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.3301761740106</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>133.122498409159</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>69.57375468953282</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>147.1022126635735</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>240.8348570146258</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>15.32411727365847</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>149.5195640544054</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>361461.2207069528</v>
+        <v>361461.2207069529</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>361461.220706953</v>
+        <v>361461.2207069529</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>361461.2207069529</v>
+        <v>361461.220706953</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>361461.220706953</v>
+        <v>361461.2207069529</v>
       </c>
     </row>
     <row r="10">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>361461.2207069529</v>
+        <v>361461.220706953</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>333931.0161129882</v>
+        <v>361461.2207069529</v>
       </c>
     </row>
   </sheetData>
@@ -26355,7 +26355,7 @@
         <v>102171.9869277625</v>
       </c>
       <c r="P2" t="n">
-        <v>104539.793733375</v>
+        <v>102171.9869277625</v>
       </c>
     </row>
     <row r="3">
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>223369.4177486677</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>43292.95496317923</v>
+        <v>43292.95496317922</v>
       </c>
       <c r="C4" t="n">
         <v>43292.95496317923</v>
@@ -26459,7 +26459,7 @@
         <v>43292.95496317923</v>
       </c>
       <c r="P4" t="n">
-        <v>8379.203228500526</v>
+        <v>43292.95496317923</v>
       </c>
     </row>
     <row r="5">
@@ -26511,7 +26511,7 @@
         <v>25797.18813722234</v>
       </c>
       <c r="P5" t="n">
-        <v>33113.33731766298</v>
+        <v>25797.18813722234</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-142737.056832349</v>
+        <v>-143476.4134442646</v>
       </c>
       <c r="C6" t="n">
-        <v>-545.7561726390704</v>
+        <v>-1285.112784554731</v>
       </c>
       <c r="D6" t="n">
-        <v>-545.7561726390704</v>
+        <v>-1285.112784554709</v>
       </c>
       <c r="E6" t="n">
-        <v>33081.84382736094</v>
+        <v>32342.48721544528</v>
       </c>
       <c r="F6" t="n">
-        <v>33081.84382736094</v>
+        <v>32342.48721544526</v>
       </c>
       <c r="G6" t="n">
-        <v>33081.84382736092</v>
+        <v>32342.48721544526</v>
       </c>
       <c r="H6" t="n">
-        <v>33081.84382736094</v>
+        <v>32342.48721544527</v>
       </c>
       <c r="I6" t="n">
-        <v>33081.84382736092</v>
+        <v>32342.48721544528</v>
       </c>
       <c r="J6" t="n">
-        <v>-77932.62151762925</v>
+        <v>-78671.97812954488</v>
       </c>
       <c r="K6" t="n">
-        <v>33081.84382736094</v>
+        <v>32342.48721544526</v>
       </c>
       <c r="L6" t="n">
-        <v>33081.84382736092</v>
+        <v>32342.48721544525</v>
       </c>
       <c r="M6" t="n">
-        <v>33081.84382736094</v>
+        <v>32342.48721544529</v>
       </c>
       <c r="N6" t="n">
-        <v>33081.84382736095</v>
+        <v>32342.48721544528</v>
       </c>
       <c r="O6" t="n">
-        <v>33081.84382736095</v>
+        <v>32342.48721544526</v>
       </c>
       <c r="P6" t="n">
-        <v>-160322.1645614562</v>
+        <v>32342.48721544529</v>
       </c>
     </row>
   </sheetData>
@@ -26779,7 +26779,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>335.6031734147081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>335.6031734147081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.349158486089278</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>13.81706934566182</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>52.01343253495693</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>114.5081400587199</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>171.6180187748791</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>212.9073277935339</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>236.900425020524</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>240.7337215691252</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>227.318026873075</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>194.0106767477459</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>145.6939384646736</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>84.74907675180566</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>30.74394900175945</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>5.905941272855816</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1079326788871422</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7218634296089947</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>6.971681017539503</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>24.85363123873074</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>68.20026375968139</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>116.565113543484</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>156.7361801876899</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>182.9037295110159</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>187.7446469841394</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>171.7496730964874</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>137.8442543785808</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>92.14523357605344</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>44.81885398923217</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>13.4082965982197</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>2.909616192152043</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04749101510585493</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6051860504199653</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>5.380654157370241</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>18.1995950435386</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>42.78665376469154</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>70.31161567606505</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>89.97466062334649</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>94.86566424901328</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>92.60997078835712</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>85.54029738117841</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>73.19450195261105</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>50.67607918562091</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>27.21136550342861</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>10.54674235140975</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>2.585794942703488</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03301014820472542</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34701,7 +34701,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34713,13 +34713,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34777,13 +34777,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>262.4693064538401</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34792,13 +34792,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="P3" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q5" t="n">
         <v>424.2958575201044</v>
@@ -35017,22 +35017,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P6" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L6" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="M7" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>409.0142240616578</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35254,10 +35254,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35266,10 +35266,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>424.2958575201044</v>
@@ -35336,16 +35336,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>369.8475292559658</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
@@ -35494,7 +35494,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35506,10 +35506,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>358.9284720888816</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35573,16 +35573,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>369.8475292559658</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P13" t="n">
         <v>351.0170646165068</v>
@@ -35652,7 +35652,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -35661,7 +35661,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>424.2958575201044</v>
@@ -35731,7 +35731,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35743,7 +35743,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>424.2958575201044</v>
@@ -35810,16 +35810,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
         <v>351.0170646165068</v>
@@ -35886,7 +35886,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K17" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -35898,16 +35898,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P17" t="n">
-        <v>407.1525905495951</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q17" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,7 +35968,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35980,10 +35980,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>358.9284720888816</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>409.401749030468</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N19" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512943</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>236.2898988798406</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697544</v>
@@ -36202,25 +36202,25 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>424.2958575201043</v>
-      </c>
       <c r="Q21" t="n">
-        <v>358.9284720888816</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36281,25 +36281,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>320.0858880793245</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N22" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512943</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,7 +36360,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K23" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -36372,16 +36372,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P23" t="n">
-        <v>407.1525905495951</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q23" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,7 +36442,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36454,7 +36454,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>424.2958575201044</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>35.25505765581501</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,19 +36597,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>424.2958575201044</v>
@@ -36755,22 +36755,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>58.3846844139612</v>
       </c>
       <c r="L28" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>409.401749030468</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36834,10 +36834,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -36846,10 +36846,10 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>424.2958575201044</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512943</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -37077,7 +37077,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -37153,7 +37153,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37165,7 +37165,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>424.2958575201044</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>56.52305090189834</v>
       </c>
       <c r="M34" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="N34" t="n">
-        <v>298.4303698644312</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -37314,19 +37314,19 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="N35" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="O35" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="P35" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R35" t="n">
         <v>170.8626916697544</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512943</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,10 +37545,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -37557,10 +37557,10 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>424.2958575201044</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>35.25505765581501</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>351.0170646165068</v>
@@ -37782,25 +37782,25 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K41" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
+      <c r="P41" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R41" t="n">
         <v>170.8626916697544</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37873,10 +37873,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>385.2554146752023</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>424.2958575201044</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>296.5687363523682</v>
       </c>
       <c r="M43" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="N43" t="n">
-        <v>409.401749030468</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512943</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>51.60081105582553</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>114.5081400587199</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K44" t="n">
-        <v>171.6180187748791</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L44" t="n">
-        <v>212.9073277935339</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M44" t="n">
-        <v>236.9004250205244</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>240.7337215691252</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>227.318026873075</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>194.0106767477459</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>145.6939384646735</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R44" t="n">
-        <v>84.74907675180566</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>51.18057382505155</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>395.4481201532388</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>116.565113543484</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L45" t="n">
-        <v>156.7361801876899</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M45" t="n">
-        <v>182.9037295110159</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>187.7446469841394</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>171.7496730964874</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>137.8442543785807</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>92.14523357605344</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R45" t="n">
-        <v>163.1751954986662</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,31 +38174,31 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>42.78665376469154</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>347.8454081721616</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>387.1919801412829</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>424.2958575201043</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N46" t="n">
-        <v>92.60997078835703</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>85.54029738117833</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>73.19450195261106</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>220.5677709677748</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
-        <v>6.007722421746777</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
